--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1225325861484805</v>
+        <v>0.1225325861483526</v>
       </c>
       <c r="E2">
-        <v>0.7030256529340022</v>
+        <v>0.7030256529340306</v>
       </c>
       <c r="F2">
-        <v>4.280455926420643</v>
+        <v>4.280455926420615</v>
       </c>
       <c r="G2">
         <v>3.607778172224499</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.309207223726474</v>
+        <v>5.309207223726446</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.067354465187407</v>
+        <v>3.06735446518752</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1002193417805799</v>
+        <v>0.1002193417806936</v>
       </c>
       <c r="E3">
-        <v>0.6169630472537193</v>
+        <v>0.6169630472537051</v>
       </c>
       <c r="F3">
         <v>3.596425207008508</v>
       </c>
       <c r="G3">
-        <v>3.026657632561822</v>
+        <v>3.026657632561808</v>
       </c>
       <c r="H3">
         <v>0.9902068045484782</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.565027824178713</v>
+        <v>4.565027824178742</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.778595588580743</v>
+        <v>2.778595588580458</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08763138357937805</v>
+        <v>0.08763138357915068</v>
       </c>
       <c r="E4">
-        <v>0.5640618598116092</v>
+        <v>0.5640618598116305</v>
       </c>
       <c r="F4">
-        <v>3.200586042881838</v>
+        <v>3.20058604288181</v>
       </c>
       <c r="G4">
         <v>2.690899123556903</v>
       </c>
       <c r="H4">
-        <v>0.9112146666777647</v>
+        <v>0.9112146666777932</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.117975083879003</v>
+        <v>4.117975083879031</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661492568841084</v>
+        <v>2.661492568841368</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08273006717894305</v>
+        <v>0.08273006717881515</v>
       </c>
       <c r="E5">
-        <v>0.5424832520699496</v>
+        <v>0.5424832520699425</v>
       </c>
       <c r="F5">
         <v>3.044264843148937</v>
       </c>
       <c r="G5">
-        <v>2.558418790853196</v>
+        <v>2.558418790853182</v>
       </c>
       <c r="H5">
-        <v>0.8799019257702412</v>
+        <v>0.8799019257702696</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.642077653779097</v>
+        <v>2.64207765377904</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08192867635256107</v>
+        <v>0.08192867635243317</v>
       </c>
       <c r="E6">
-        <v>0.5388987302884871</v>
+        <v>0.5388987302885013</v>
       </c>
       <c r="F6">
         <v>3.018580792802027</v>
       </c>
       <c r="G6">
-        <v>2.536658295757178</v>
+        <v>2.536658295757192</v>
       </c>
       <c r="H6">
-        <v>0.8747518472973184</v>
+        <v>0.8747518472972757</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.777014195615209</v>
+        <v>2.777014195615379</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08756441901790168</v>
+        <v>0.08756441901788747</v>
       </c>
       <c r="E7">
-        <v>0.5637709347816369</v>
+        <v>0.5637709347816582</v>
       </c>
       <c r="F7">
-        <v>3.19845894861038</v>
+        <v>3.198458948610408</v>
       </c>
       <c r="G7">
-        <v>2.689095991227333</v>
+        <v>2.689095991227347</v>
       </c>
       <c r="H7">
-        <v>0.9107889855466311</v>
+        <v>0.9107889855466453</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.115537329243097</v>
+        <v>4.115537329243011</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.377889727232173</v>
+        <v>3.377889727232116</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1145739033543123</v>
+        <v>0.1145739033541844</v>
       </c>
       <c r="E8">
-        <v>0.6733588915198965</v>
+        <v>0.6733588915198823</v>
       </c>
       <c r="F8">
-        <v>4.038866333383282</v>
+        <v>4.038866333383254</v>
       </c>
       <c r="G8">
-        <v>3.402408603125664</v>
+        <v>3.40240860312565</v>
       </c>
       <c r="H8">
-        <v>1.077872298377173</v>
+        <v>1.077872298377201</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.05022021111094</v>
+        <v>5.050220211110883</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.588594916079501</v>
+        <v>4.588594916079273</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0.888244629838411</v>
       </c>
       <c r="F9">
-        <v>5.941636420612554</v>
+        <v>5.941636420612525</v>
       </c>
       <c r="G9">
         <v>5.023299125536283</v>
       </c>
       <c r="H9">
-        <v>1.444868978173346</v>
+        <v>1.444868978173375</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.514537927288814</v>
+        <v>5.514537927288359</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2400723356694527</v>
+        <v>0.2400723356696659</v>
       </c>
       <c r="E10">
-        <v>1.047164407611461</v>
+        <v>1.047164407611447</v>
       </c>
       <c r="F10">
-        <v>7.616567343381917</v>
+        <v>7.616567343381803</v>
       </c>
       <c r="G10">
-        <v>6.455893926894333</v>
+        <v>6.455893926894248</v>
       </c>
       <c r="H10">
-        <v>1.751611427729486</v>
+        <v>1.751611427729472</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.949119206643275</v>
+        <v>5.949119206643047</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2726644217584919</v>
+        <v>0.272664421758293</v>
       </c>
       <c r="E11">
         <v>1.120144402428494</v>
       </c>
       <c r="F11">
-        <v>8.482063351549328</v>
+        <v>8.482063351549414</v>
       </c>
       <c r="G11">
-        <v>7.198071662912355</v>
+        <v>7.198071662912469</v>
       </c>
       <c r="H11">
-        <v>1.903373643359899</v>
+        <v>1.903373643359942</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.293460539252891</v>
+        <v>9.293460539252919</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.116275049940725</v>
+        <v>6.116275049940896</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2860113341879753</v>
+        <v>0.2860113341879469</v>
       </c>
       <c r="E12">
         <v>1.147948857270435</v>
       </c>
       <c r="F12">
-        <v>8.830483968254669</v>
+        <v>8.830483968254782</v>
       </c>
       <c r="G12">
-        <v>7.497196391171173</v>
+        <v>7.497196391171258</v>
       </c>
       <c r="H12">
-        <v>1.963099594809293</v>
+        <v>1.963099594809322</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.587718545832388</v>
+        <v>9.587718545832359</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.080146303832805</v>
+        <v>6.080146303832748</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2830859647589676</v>
+        <v>0.2830859647586266</v>
       </c>
       <c r="E13">
-        <v>1.141951575042384</v>
+        <v>1.141951575042341</v>
       </c>
       <c r="F13">
-        <v>8.754403188708324</v>
+        <v>8.75440318870838</v>
       </c>
       <c r="G13">
-        <v>7.431863047854762</v>
+        <v>7.43186304785479</v>
       </c>
       <c r="H13">
-        <v>1.950126181908914</v>
+        <v>1.950126181908956</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.52386879118913</v>
+        <v>9.523868791189159</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.96281453939531</v>
+        <v>5.962814539395595</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2737401723922801</v>
+        <v>0.273740172392138</v>
       </c>
       <c r="E14">
         <v>1.122427956404309</v>
@@ -886,7 +886,7 @@
         <v>7.222280804430312</v>
       </c>
       <c r="H14">
-        <v>1.908238579006195</v>
+        <v>1.908238579006223</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.317460396122016</v>
+        <v>9.317460396122044</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.891306959127462</v>
+        <v>5.891306959127405</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.268157443861071</v>
+        <v>0.2681574438608578</v>
       </c>
       <c r="E15">
-        <v>1.110493927688466</v>
+        <v>1.110493927688424</v>
       </c>
       <c r="F15">
-        <v>8.363643012603887</v>
+        <v>8.363643012603973</v>
       </c>
       <c r="G15">
-        <v>7.096450866723359</v>
+        <v>7.096450866723472</v>
       </c>
       <c r="H15">
         <v>1.88289304779515</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.192358634536703</v>
+        <v>9.19235863453676</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.486457439531989</v>
+        <v>5.486457439531705</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2380643310612243</v>
+        <v>0.2380643310610253</v>
       </c>
       <c r="E16">
         <v>1.042413879701982</v>
       </c>
       <c r="F16">
-        <v>7.562526535998074</v>
+        <v>7.56252653599816</v>
       </c>
       <c r="G16">
-        <v>6.409594730568728</v>
+        <v>6.409594730568784</v>
       </c>
       <c r="H16">
-        <v>1.741978181844587</v>
+        <v>1.741978181844601</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.493321235929585</v>
+        <v>8.49332123592967</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.24192052438616</v>
+        <v>5.241920524386046</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2210459769190294</v>
+        <v>0.221045976918802</v>
       </c>
       <c r="E17">
         <v>1.00086295462323</v>
       </c>
       <c r="F17">
-        <v>7.100966460340061</v>
+        <v>7.100966460340089</v>
       </c>
       <c r="G17">
-        <v>6.014360195882631</v>
+        <v>6.014360195882659</v>
       </c>
       <c r="H17">
         <v>1.658966683747195</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.078113746791757</v>
+        <v>8.078113746791701</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.102476569211831</v>
+        <v>5.102476569212115</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2117033481340513</v>
+        <v>0.2117033481338524</v>
       </c>
       <c r="E18">
-        <v>0.9770228310603386</v>
+        <v>0.9770228310603244</v>
       </c>
       <c r="F18">
-        <v>6.844783499018149</v>
+        <v>6.844783499018121</v>
       </c>
       <c r="G18">
-        <v>5.795151022235103</v>
+        <v>5.795151022235075</v>
       </c>
       <c r="H18">
         <v>1.612333676588548</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.055454046409864</v>
+        <v>5.055454046410091</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2086098574512931</v>
+        <v>0.2086098574513358</v>
       </c>
       <c r="E19">
         <v>0.9689595607064803</v>
       </c>
       <c r="F19">
-        <v>6.759503063135043</v>
+        <v>6.759503063135071</v>
       </c>
       <c r="G19">
-        <v>5.722204614254764</v>
+        <v>5.722204614254849</v>
       </c>
       <c r="H19">
-        <v>1.596723137073255</v>
+        <v>1.596723137073269</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.764757592565473</v>
+        <v>7.764757592565502</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.267822896380551</v>
+        <v>5.267822896380267</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2228097775981439</v>
+        <v>0.2228097775985134</v>
       </c>
       <c r="E20">
-        <v>1.005279647429987</v>
+        <v>1.005279647430001</v>
       </c>
       <c r="F20">
-        <v>7.149104433422366</v>
+        <v>7.149104433422337</v>
       </c>
       <c r="G20">
-        <v>6.055563528205624</v>
+        <v>6.055563528205568</v>
       </c>
       <c r="H20">
-        <v>1.667685130049932</v>
+        <v>1.667685130049904</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.121860147931528</v>
+        <v>8.121860147931443</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.997200788743669</v>
+        <v>5.997200788743839</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2764549674234189</v>
+        <v>0.2764549674232342</v>
       </c>
       <c r="E21">
         <v>1.128157166263932</v>
       </c>
       <c r="F21">
-        <v>8.581357293194088</v>
+        <v>8.581357293194145</v>
       </c>
       <c r="G21">
-        <v>7.283297052708576</v>
+        <v>7.283297052708605</v>
       </c>
       <c r="H21">
-        <v>1.92047582855794</v>
+        <v>1.920475828557983</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.489523831909935</v>
+        <v>6.489523831909651</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3176315195988053</v>
+        <v>0.3176315195984074</v>
       </c>
       <c r="E22">
-        <v>1.209518903002149</v>
+        <v>1.209518903002163</v>
       </c>
       <c r="F22">
-        <v>9.643019138542627</v>
+        <v>9.643019138542655</v>
       </c>
       <c r="G22">
-        <v>8.195525551845265</v>
+        <v>8.195525551845236</v>
       </c>
       <c r="H22">
-        <v>2.099233035652318</v>
+        <v>2.099233035652276</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225031432046251</v>
+        <v>6.225031432046592</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.294956947054331</v>
+        <v>0.2949569470545157</v>
       </c>
       <c r="E23">
-        <v>1.165961584815605</v>
+        <v>1.165961584815577</v>
       </c>
       <c r="F23">
-        <v>9.062160148607347</v>
+        <v>9.062160148607404</v>
       </c>
       <c r="G23">
-        <v>7.696202429796813</v>
+        <v>7.69620242979687</v>
       </c>
       <c r="H23">
-        <v>2.002368305711215</v>
+        <v>2.002368305711229</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2220110078943378</v>
+        <v>0.2220110078941673</v>
       </c>
       <c r="E24">
-        <v>1.003282715488965</v>
+        <v>1.00328271548895</v>
       </c>
       <c r="F24">
         <v>7.127313074424364</v>
@@ -1266,7 +1266,7 @@
         <v>6.036910877179963</v>
       </c>
       <c r="H24">
-        <v>1.663740155877505</v>
+        <v>1.663740155877548</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.102069754586324</v>
+        <v>8.102069754586381</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.256122685861897</v>
+        <v>4.256122685861556</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1600796627297996</v>
+        <v>0.160079662730098</v>
       </c>
       <c r="E25">
-        <v>0.8300328421697856</v>
+        <v>0.8300328421697571</v>
       </c>
       <c r="F25">
-        <v>5.389269693361825</v>
+        <v>5.389269693361797</v>
       </c>
       <c r="G25">
-        <v>4.551992500304465</v>
+        <v>4.551992500304436</v>
       </c>
       <c r="H25">
-        <v>1.340201554655991</v>
+        <v>1.340201554656019</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.449815364044952</v>
+        <v>6.449815364044923</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1225325861483526</v>
+        <v>0.1225325861484805</v>
       </c>
       <c r="E2">
-        <v>0.7030256529340306</v>
+        <v>0.7030256529340022</v>
       </c>
       <c r="F2">
-        <v>4.280455926420615</v>
+        <v>4.280455926420643</v>
       </c>
       <c r="G2">
         <v>3.607778172224499</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.309207223726446</v>
+        <v>5.309207223726474</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.06735446518752</v>
+        <v>3.067354465187407</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1002193417806936</v>
+        <v>0.1002193417805799</v>
       </c>
       <c r="E3">
-        <v>0.6169630472537051</v>
+        <v>0.6169630472537193</v>
       </c>
       <c r="F3">
         <v>3.596425207008508</v>
       </c>
       <c r="G3">
-        <v>3.026657632561808</v>
+        <v>3.026657632561822</v>
       </c>
       <c r="H3">
         <v>0.9902068045484782</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.565027824178742</v>
+        <v>4.565027824178713</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.778595588580458</v>
+        <v>2.778595588580743</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08763138357915068</v>
+        <v>0.08763138357937805</v>
       </c>
       <c r="E4">
-        <v>0.5640618598116305</v>
+        <v>0.5640618598116092</v>
       </c>
       <c r="F4">
-        <v>3.20058604288181</v>
+        <v>3.200586042881838</v>
       </c>
       <c r="G4">
         <v>2.690899123556903</v>
       </c>
       <c r="H4">
-        <v>0.9112146666777932</v>
+        <v>0.9112146666777647</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.117975083879031</v>
+        <v>4.117975083879003</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661492568841368</v>
+        <v>2.661492568841084</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08273006717881515</v>
+        <v>0.08273006717894305</v>
       </c>
       <c r="E5">
-        <v>0.5424832520699425</v>
+        <v>0.5424832520699496</v>
       </c>
       <c r="F5">
         <v>3.044264843148937</v>
       </c>
       <c r="G5">
-        <v>2.558418790853182</v>
+        <v>2.558418790853196</v>
       </c>
       <c r="H5">
-        <v>0.8799019257702696</v>
+        <v>0.8799019257702412</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -564,25 +564,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.64207765377904</v>
+        <v>2.642077653779097</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08192867635243317</v>
+        <v>0.08192867635256107</v>
       </c>
       <c r="E6">
-        <v>0.5388987302885013</v>
+        <v>0.5388987302884871</v>
       </c>
       <c r="F6">
         <v>3.018580792802027</v>
       </c>
       <c r="G6">
-        <v>2.536658295757192</v>
+        <v>2.536658295757178</v>
       </c>
       <c r="H6">
-        <v>0.8747518472972757</v>
+        <v>0.8747518472973184</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.777014195615379</v>
+        <v>2.777014195615209</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08756441901788747</v>
+        <v>0.08756441901790168</v>
       </c>
       <c r="E7">
-        <v>0.5637709347816582</v>
+        <v>0.5637709347816369</v>
       </c>
       <c r="F7">
-        <v>3.198458948610408</v>
+        <v>3.19845894861038</v>
       </c>
       <c r="G7">
-        <v>2.689095991227347</v>
+        <v>2.689095991227333</v>
       </c>
       <c r="H7">
-        <v>0.9107889855466453</v>
+        <v>0.9107889855466311</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.115537329243011</v>
+        <v>4.115537329243097</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.377889727232116</v>
+        <v>3.377889727232173</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1145739033541844</v>
+        <v>0.1145739033543123</v>
       </c>
       <c r="E8">
-        <v>0.6733588915198823</v>
+        <v>0.6733588915198965</v>
       </c>
       <c r="F8">
-        <v>4.038866333383254</v>
+        <v>4.038866333383282</v>
       </c>
       <c r="G8">
-        <v>3.40240860312565</v>
+        <v>3.402408603125664</v>
       </c>
       <c r="H8">
-        <v>1.077872298377201</v>
+        <v>1.077872298377173</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.050220211110883</v>
+        <v>5.05022021111094</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.588594916079273</v>
+        <v>4.588594916079501</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -690,13 +690,13 @@
         <v>0.888244629838411</v>
       </c>
       <c r="F9">
-        <v>5.941636420612525</v>
+        <v>5.941636420612554</v>
       </c>
       <c r="G9">
         <v>5.023299125536283</v>
       </c>
       <c r="H9">
-        <v>1.444868978173375</v>
+        <v>1.444868978173346</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.514537927288359</v>
+        <v>5.514537927288814</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2400723356696659</v>
+        <v>0.2400723356694527</v>
       </c>
       <c r="E10">
-        <v>1.047164407611447</v>
+        <v>1.047164407611461</v>
       </c>
       <c r="F10">
-        <v>7.616567343381803</v>
+        <v>7.616567343381917</v>
       </c>
       <c r="G10">
-        <v>6.455893926894248</v>
+        <v>6.455893926894333</v>
       </c>
       <c r="H10">
-        <v>1.751611427729472</v>
+        <v>1.751611427729486</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.949119206643047</v>
+        <v>5.949119206643275</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.272664421758293</v>
+        <v>0.2726644217584919</v>
       </c>
       <c r="E11">
         <v>1.120144402428494</v>
       </c>
       <c r="F11">
-        <v>8.482063351549414</v>
+        <v>8.482063351549328</v>
       </c>
       <c r="G11">
-        <v>7.198071662912469</v>
+        <v>7.198071662912355</v>
       </c>
       <c r="H11">
-        <v>1.903373643359942</v>
+        <v>1.903373643359899</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.293460539252919</v>
+        <v>9.293460539252891</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.116275049940896</v>
+        <v>6.116275049940725</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2860113341879469</v>
+        <v>0.2860113341879753</v>
       </c>
       <c r="E12">
         <v>1.147948857270435</v>
       </c>
       <c r="F12">
-        <v>8.830483968254782</v>
+        <v>8.830483968254669</v>
       </c>
       <c r="G12">
-        <v>7.497196391171258</v>
+        <v>7.497196391171173</v>
       </c>
       <c r="H12">
-        <v>1.963099594809322</v>
+        <v>1.963099594809293</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.587718545832359</v>
+        <v>9.587718545832388</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.080146303832748</v>
+        <v>6.080146303832805</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2830859647586266</v>
+        <v>0.2830859647589676</v>
       </c>
       <c r="E13">
-        <v>1.141951575042341</v>
+        <v>1.141951575042384</v>
       </c>
       <c r="F13">
-        <v>8.75440318870838</v>
+        <v>8.754403188708324</v>
       </c>
       <c r="G13">
-        <v>7.43186304785479</v>
+        <v>7.431863047854762</v>
       </c>
       <c r="H13">
-        <v>1.950126181908956</v>
+        <v>1.950126181908914</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.523868791189159</v>
+        <v>9.52386879118913</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.962814539395595</v>
+        <v>5.96281453939531</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.273740172392138</v>
+        <v>0.2737401723922801</v>
       </c>
       <c r="E14">
         <v>1.122427956404309</v>
@@ -886,7 +886,7 @@
         <v>7.222280804430312</v>
       </c>
       <c r="H14">
-        <v>1.908238579006223</v>
+        <v>1.908238579006195</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.317460396122044</v>
+        <v>9.317460396122016</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.891306959127405</v>
+        <v>5.891306959127462</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2681574438608578</v>
+        <v>0.268157443861071</v>
       </c>
       <c r="E15">
-        <v>1.110493927688424</v>
+        <v>1.110493927688466</v>
       </c>
       <c r="F15">
-        <v>8.363643012603973</v>
+        <v>8.363643012603887</v>
       </c>
       <c r="G15">
-        <v>7.096450866723472</v>
+        <v>7.096450866723359</v>
       </c>
       <c r="H15">
         <v>1.88289304779515</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.19235863453676</v>
+        <v>9.192358634536703</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.486457439531705</v>
+        <v>5.486457439531989</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2380643310610253</v>
+        <v>0.2380643310612243</v>
       </c>
       <c r="E16">
         <v>1.042413879701982</v>
       </c>
       <c r="F16">
-        <v>7.56252653599816</v>
+        <v>7.562526535998074</v>
       </c>
       <c r="G16">
-        <v>6.409594730568784</v>
+        <v>6.409594730568728</v>
       </c>
       <c r="H16">
-        <v>1.741978181844601</v>
+        <v>1.741978181844587</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.49332123592967</v>
+        <v>8.493321235929585</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.241920524386046</v>
+        <v>5.24192052438616</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.221045976918802</v>
+        <v>0.2210459769190294</v>
       </c>
       <c r="E17">
         <v>1.00086295462323</v>
       </c>
       <c r="F17">
-        <v>7.100966460340089</v>
+        <v>7.100966460340061</v>
       </c>
       <c r="G17">
-        <v>6.014360195882659</v>
+        <v>6.014360195882631</v>
       </c>
       <c r="H17">
         <v>1.658966683747195</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.078113746791701</v>
+        <v>8.078113746791757</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.102476569212115</v>
+        <v>5.102476569211831</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2117033481338524</v>
+        <v>0.2117033481340513</v>
       </c>
       <c r="E18">
-        <v>0.9770228310603244</v>
+        <v>0.9770228310603386</v>
       </c>
       <c r="F18">
-        <v>6.844783499018121</v>
+        <v>6.844783499018149</v>
       </c>
       <c r="G18">
-        <v>5.795151022235075</v>
+        <v>5.795151022235103</v>
       </c>
       <c r="H18">
         <v>1.612333676588548</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.055454046410091</v>
+        <v>5.055454046409864</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2086098574513358</v>
+        <v>0.2086098574512931</v>
       </c>
       <c r="E19">
         <v>0.9689595607064803</v>
       </c>
       <c r="F19">
-        <v>6.759503063135071</v>
+        <v>6.759503063135043</v>
       </c>
       <c r="G19">
-        <v>5.722204614254849</v>
+        <v>5.722204614254764</v>
       </c>
       <c r="H19">
-        <v>1.596723137073269</v>
+        <v>1.596723137073255</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.764757592565502</v>
+        <v>7.764757592565473</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.267822896380267</v>
+        <v>5.267822896380551</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2228097775985134</v>
+        <v>0.2228097775981439</v>
       </c>
       <c r="E20">
-        <v>1.005279647430001</v>
+        <v>1.005279647429987</v>
       </c>
       <c r="F20">
-        <v>7.149104433422337</v>
+        <v>7.149104433422366</v>
       </c>
       <c r="G20">
-        <v>6.055563528205568</v>
+        <v>6.055563528205624</v>
       </c>
       <c r="H20">
-        <v>1.667685130049904</v>
+        <v>1.667685130049932</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.121860147931443</v>
+        <v>8.121860147931528</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.997200788743839</v>
+        <v>5.997200788743669</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2764549674232342</v>
+        <v>0.2764549674234189</v>
       </c>
       <c r="E21">
         <v>1.128157166263932</v>
       </c>
       <c r="F21">
-        <v>8.581357293194145</v>
+        <v>8.581357293194088</v>
       </c>
       <c r="G21">
-        <v>7.283297052708605</v>
+        <v>7.283297052708576</v>
       </c>
       <c r="H21">
-        <v>1.920475828557983</v>
+        <v>1.92047582855794</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.489523831909651</v>
+        <v>6.489523831909935</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3176315195984074</v>
+        <v>0.3176315195988053</v>
       </c>
       <c r="E22">
-        <v>1.209518903002163</v>
+        <v>1.209518903002149</v>
       </c>
       <c r="F22">
-        <v>9.643019138542655</v>
+        <v>9.643019138542627</v>
       </c>
       <c r="G22">
-        <v>8.195525551845236</v>
+        <v>8.195525551845265</v>
       </c>
       <c r="H22">
-        <v>2.099233035652276</v>
+        <v>2.099233035652318</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225031432046592</v>
+        <v>6.225031432046251</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2949569470545157</v>
+        <v>0.294956947054331</v>
       </c>
       <c r="E23">
-        <v>1.165961584815577</v>
+        <v>1.165961584815605</v>
       </c>
       <c r="F23">
-        <v>9.062160148607404</v>
+        <v>9.062160148607347</v>
       </c>
       <c r="G23">
-        <v>7.69620242979687</v>
+        <v>7.696202429796813</v>
       </c>
       <c r="H23">
-        <v>2.002368305711229</v>
+        <v>2.002368305711215</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1254,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2220110078941673</v>
+        <v>0.2220110078943378</v>
       </c>
       <c r="E24">
-        <v>1.00328271548895</v>
+        <v>1.003282715488965</v>
       </c>
       <c r="F24">
         <v>7.127313074424364</v>
@@ -1266,7 +1266,7 @@
         <v>6.036910877179963</v>
       </c>
       <c r="H24">
-        <v>1.663740155877548</v>
+        <v>1.663740155877505</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.102069754586381</v>
+        <v>8.102069754586324</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.256122685861556</v>
+        <v>4.256122685861897</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.160079662730098</v>
+        <v>0.1600796627297996</v>
       </c>
       <c r="E25">
-        <v>0.8300328421697571</v>
+        <v>0.8300328421697856</v>
       </c>
       <c r="F25">
-        <v>5.389269693361797</v>
+        <v>5.389269693361825</v>
       </c>
       <c r="G25">
-        <v>4.551992500304436</v>
+        <v>4.551992500304465</v>
       </c>
       <c r="H25">
-        <v>1.340201554656019</v>
+        <v>1.340201554655991</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.449815364044923</v>
+        <v>6.449815364044952</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.54240007313615</v>
+        <v>3.542147481199379</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1225325861484805</v>
+        <v>0.1219639968900026</v>
       </c>
       <c r="E2">
-        <v>0.7030256529340022</v>
+        <v>0.7019451017921341</v>
       </c>
       <c r="F2">
-        <v>4.280455926420643</v>
+        <v>4.271585274966384</v>
       </c>
       <c r="G2">
-        <v>3.607778172224499</v>
+        <v>1.225925952064429</v>
       </c>
       <c r="H2">
-        <v>1.12541629299173</v>
+        <v>2.375064652193032</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.126732405620189</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.309207223726474</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>5.305266468775727</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.067354465187407</v>
+        <v>3.06717380362187</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1002193417805799</v>
+        <v>0.09975607193235447</v>
       </c>
       <c r="E3">
-        <v>0.6169630472537193</v>
+        <v>0.6160329961424011</v>
       </c>
       <c r="F3">
-        <v>3.596425207008508</v>
+        <v>3.589187515424925</v>
       </c>
       <c r="G3">
-        <v>3.026657632561822</v>
+        <v>1.026915521455848</v>
       </c>
       <c r="H3">
-        <v>0.9902068045484782</v>
+        <v>1.994971488423758</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.991370515438021</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.565027824178713</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>4.561790122909315</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.778595588580743</v>
+        <v>2.77845171006004</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08763138357937805</v>
+        <v>0.08722684529167424</v>
       </c>
       <c r="E4">
-        <v>0.5640618598116092</v>
+        <v>0.5632219903055784</v>
       </c>
       <c r="F4">
-        <v>3.200586042881838</v>
+        <v>3.194256556500051</v>
       </c>
       <c r="G4">
-        <v>2.690899123556903</v>
+        <v>0.9117071591501826</v>
       </c>
       <c r="H4">
-        <v>0.9112146666777647</v>
+        <v>1.775558612330784</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.9122809174907331</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.117975083879003</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>4.115131593283564</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661492568841084</v>
+        <v>2.661362231984242</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08273006717894305</v>
+        <v>0.08234828384533444</v>
       </c>
       <c r="E5">
-        <v>0.5424832520699496</v>
+        <v>0.5416797355202263</v>
       </c>
       <c r="F5">
-        <v>3.044264843148937</v>
+        <v>3.03828685790748</v>
       </c>
       <c r="G5">
-        <v>2.558418790853196</v>
+        <v>0.8661960569192502</v>
       </c>
       <c r="H5">
-        <v>0.8799019257702412</v>
+        <v>1.68903279870716</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8809276749146449</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.937761599701162</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>3.935071464943491</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.642077653779097</v>
+        <v>2.641949488175158</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08192867635256107</v>
+        <v>0.08155060809826864</v>
       </c>
       <c r="E6">
-        <v>0.5388987302884871</v>
+        <v>0.5381012302196098</v>
       </c>
       <c r="F6">
-        <v>3.018580792802027</v>
+        <v>3.012660178231101</v>
       </c>
       <c r="G6">
-        <v>2.536658295757178</v>
+        <v>0.8587175088747045</v>
       </c>
       <c r="H6">
-        <v>0.8747518472973184</v>
+        <v>1.674823405793688</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8757708283193182</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.907942442264158</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>3.905277384674918</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.777014195615209</v>
+        <v>2.776870505115255</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08756441901790168</v>
+        <v>0.08716019202160652</v>
       </c>
       <c r="E7">
-        <v>0.5637709347816369</v>
+        <v>0.5629315569626954</v>
       </c>
       <c r="F7">
-        <v>3.19845894861038</v>
+        <v>3.192134272097405</v>
       </c>
       <c r="G7">
-        <v>2.689095991227333</v>
+        <v>0.9110879418109619</v>
       </c>
       <c r="H7">
-        <v>0.9107889855466311</v>
+        <v>1.774380752275391</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.9118546931074007</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.115537329243097</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>4.112695933923959</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.377889727232173</v>
+        <v>3.377663750026556</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1145739033543123</v>
+        <v>0.114043074493118</v>
       </c>
       <c r="E8">
-        <v>0.6733588915198965</v>
+        <v>0.6723308061668263</v>
       </c>
       <c r="F8">
-        <v>4.038866333383282</v>
+        <v>4.030581861460604</v>
       </c>
       <c r="G8">
-        <v>3.402408603125664</v>
+        <v>1.155645798081864</v>
       </c>
       <c r="H8">
-        <v>1.077872298377173</v>
+        <v>2.240695360727273</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.079136802617995</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>5.05022021111094</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>5.046531112504198</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.588594916079501</v>
+        <v>4.588122758226461</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1793719168635306</v>
+        <v>0.1785258788259654</v>
       </c>
       <c r="E9">
-        <v>0.888244629838411</v>
+        <v>0.8868185215726214</v>
       </c>
       <c r="F9">
-        <v>5.941636420612554</v>
+        <v>5.928429760728079</v>
       </c>
       <c r="G9">
-        <v>5.023299125536283</v>
+        <v>1.709135932982974</v>
       </c>
       <c r="H9">
-        <v>1.444868978173346</v>
+        <v>3.30216741096342</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.446479698858667</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.991500318783864</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>6.985714322478174</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.514537927288814</v>
+        <v>5.51377481627577</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2400723356694527</v>
+        <v>0.2389104299962099</v>
       </c>
       <c r="E10">
-        <v>1.047164407611461</v>
+        <v>1.045406294439701</v>
       </c>
       <c r="F10">
-        <v>7.616567343381917</v>
+        <v>7.59835408562023</v>
       </c>
       <c r="G10">
-        <v>6.455893926894333</v>
+        <v>2.196535083465704</v>
       </c>
       <c r="H10">
-        <v>1.751611427729486</v>
+        <v>4.2415684221601</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.753420111781296</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.541324827975899</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>8.533426772854966</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.949119206643275</v>
+        <v>5.94817464841924</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2726644217584919</v>
+        <v>0.2713220524631765</v>
       </c>
       <c r="E11">
-        <v>1.120144402428494</v>
+        <v>1.11821711144934</v>
       </c>
       <c r="F11">
-        <v>8.482063351549328</v>
+        <v>8.460954594492989</v>
       </c>
       <c r="G11">
-        <v>7.198071662912355</v>
+        <v>2.448526068841716</v>
       </c>
       <c r="H11">
-        <v>1.903373643359899</v>
+        <v>4.7284936539684</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.905246708069726</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.293460539252891</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>9.284344598238278</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.116275049940725</v>
+        <v>6.115250748757887</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2860113341879753</v>
+        <v>0.2845924517494893</v>
       </c>
       <c r="E12">
-        <v>1.147948857270435</v>
+        <v>1.145953402074397</v>
       </c>
       <c r="F12">
-        <v>8.830483968254669</v>
+        <v>8.808139944789275</v>
       </c>
       <c r="G12">
-        <v>7.497196391171173</v>
+        <v>2.549998650214832</v>
       </c>
       <c r="H12">
-        <v>1.963099594809293</v>
+        <v>4.924772187628207</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.964991172767355</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.587718545832388</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>9.578083358026163</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.080146303832805</v>
+        <v>6.079139760374346</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2830859647589676</v>
+        <v>0.281683991710338</v>
       </c>
       <c r="E13">
-        <v>1.141951575042384</v>
+        <v>1.1399710173459</v>
       </c>
       <c r="F13">
-        <v>8.754403188708324</v>
+        <v>8.732332545398577</v>
       </c>
       <c r="G13">
-        <v>7.431863047854762</v>
+        <v>2.527839741623637</v>
       </c>
       <c r="H13">
-        <v>1.950126181908914</v>
+        <v>4.881900875444103</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.952014084994715</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.52386879118913</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>9.514348509619168</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.96281453939531</v>
+        <v>5.961863674112749</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2737401723922801</v>
+        <v>0.2723916955775536</v>
       </c>
       <c r="E14">
-        <v>1.122427956404309</v>
+        <v>1.120495151779039</v>
       </c>
       <c r="F14">
-        <v>8.510270712100265</v>
+        <v>8.489063517612834</v>
       </c>
       <c r="G14">
-        <v>7.222280804430312</v>
+        <v>2.456740430654037</v>
       </c>
       <c r="H14">
-        <v>1.908238579006195</v>
+        <v>4.744378595059686</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.910113302235345</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.317460396122016</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>9.308303072029275</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.891306959127462</v>
+        <v>5.890388599335495</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.268157443861071</v>
+        <v>0.2668405528394118</v>
       </c>
       <c r="E15">
-        <v>1.110493927688466</v>
+        <v>1.108589778552869</v>
       </c>
       <c r="F15">
-        <v>8.363643012603887</v>
+        <v>8.342944588186128</v>
       </c>
       <c r="G15">
-        <v>7.096450866723359</v>
+        <v>2.414041687873208</v>
       </c>
       <c r="H15">
-        <v>1.88289304779515</v>
+        <v>4.661815812913289</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.88475884450645</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.192358634536703</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>9.183415208246117</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.486457439531989</v>
+        <v>5.485704912476194</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2380643310612243</v>
+        <v>0.2369132707262622</v>
       </c>
       <c r="E16">
-        <v>1.042413879701982</v>
+        <v>1.04066634994291</v>
       </c>
       <c r="F16">
-        <v>7.562526535998074</v>
+        <v>7.54448647632384</v>
       </c>
       <c r="G16">
-        <v>6.409594730568728</v>
+        <v>2.180804308684884</v>
       </c>
       <c r="H16">
-        <v>1.741978181844587</v>
+        <v>4.211197046997142</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.743781986112495</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.493321235929585</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>8.485496082476431</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.24192052438616</v>
+        <v>5.241255013896421</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2210459769190294</v>
+        <v>0.2199856670624882</v>
       </c>
       <c r="E17">
-        <v>1.00086295462323</v>
+        <v>0.9992060511341236</v>
       </c>
       <c r="F17">
-        <v>7.100966460340061</v>
+        <v>7.084372040590921</v>
       </c>
       <c r="G17">
-        <v>6.014360195882631</v>
+        <v>2.046463501731381</v>
       </c>
       <c r="H17">
-        <v>1.658966683747195</v>
+        <v>3.951957122907714</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.660724720363817</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.078113746791757</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>8.070897423928386</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.102476569211831</v>
+        <v>5.101856815964766</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2117033481340513</v>
+        <v>0.2106920121556328</v>
       </c>
       <c r="E18">
-        <v>0.9770228310603386</v>
+        <v>0.9754164681217929</v>
       </c>
       <c r="F18">
-        <v>6.844783499018149</v>
+        <v>6.828966534401985</v>
       </c>
       <c r="G18">
-        <v>5.795151022235103</v>
+        <v>1.971910457018794</v>
       </c>
       <c r="H18">
-        <v>1.612333676588548</v>
+        <v>3.808197339761932</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.614063153267679</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.843523679966069</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>7.836635085846694</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.055454046409864</v>
+        <v>5.054849133967821</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2086098574512931</v>
+        <v>0.2076146119085109</v>
       </c>
       <c r="E19">
-        <v>0.9689595607064803</v>
+        <v>0.9673700698428149</v>
       </c>
       <c r="F19">
-        <v>6.759503063135043</v>
+        <v>6.743941122122976</v>
       </c>
       <c r="G19">
-        <v>5.722204614254764</v>
+        <v>1.947094239533897</v>
       </c>
       <c r="H19">
-        <v>1.596723137073255</v>
+        <v>3.760362264888442</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.598442606041004</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.764757592565473</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>7.75797655694555</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.267822896380551</v>
+        <v>5.267148588459008</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2228097775981439</v>
+        <v>0.2217401564071508</v>
       </c>
       <c r="E20">
-        <v>1.005279647429987</v>
+        <v>1.003613268743536</v>
       </c>
       <c r="F20">
-        <v>7.149104433422366</v>
+        <v>7.132361984061845</v>
       </c>
       <c r="G20">
-        <v>6.055563528205624</v>
+        <v>2.060473225473999</v>
       </c>
       <c r="H20">
-        <v>1.667685130049932</v>
+        <v>3.978980624472257</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.669448281667385</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.121860147931528</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>8.11458145113653</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.997200788743669</v>
+        <v>5.996233913862625</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2764549674234189</v>
+        <v>0.2750910319414146</v>
       </c>
       <c r="E21">
-        <v>1.128157166263932</v>
+        <v>1.126210463513246</v>
       </c>
       <c r="F21">
-        <v>8.581357293194088</v>
+        <v>8.559900816305031</v>
       </c>
       <c r="G21">
-        <v>7.283297052708576</v>
+        <v>2.477442290275064</v>
       </c>
       <c r="H21">
-        <v>1.92047582855794</v>
+        <v>4.784415123680361</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.922354607094661</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.377803876433234</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>9.368541758179958</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.489523831909935</v>
+        <v>6.488297149242953</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3176315195988053</v>
+        <v>0.3160244826343757</v>
       </c>
       <c r="E22">
-        <v>1.209518903002149</v>
+        <v>1.207363492937532</v>
       </c>
       <c r="F22">
-        <v>9.643019138542627</v>
+        <v>9.6176186206593</v>
       </c>
       <c r="G22">
-        <v>8.195525551845265</v>
+        <v>2.786704534043736</v>
       </c>
       <c r="H22">
-        <v>2.099233035652318</v>
+        <v>5.383038673633337</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.101150798169982</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.25597692362501</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>10.24505719265903</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225031432046251</v>
+        <v>6.2239518353677</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.294956947054331</v>
+        <v>0.2934858532300808</v>
       </c>
       <c r="E23">
-        <v>1.165961584815605</v>
+        <v>1.163920700345699</v>
       </c>
       <c r="F23">
-        <v>9.062160148607347</v>
+        <v>9.038970632135005</v>
       </c>
       <c r="G23">
-        <v>7.696202429796813</v>
+        <v>2.617480531401867</v>
       </c>
       <c r="H23">
-        <v>2.002368305711215</v>
+        <v>5.055361940007401</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.004269797706328</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.780780933196098</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>9.770790394482162</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.256108918325594</v>
+        <v>5.255438600765387</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2220110078943378</v>
+        <v>0.2209456061368513</v>
       </c>
       <c r="E24">
-        <v>1.003282715488965</v>
+        <v>1.00162062530697</v>
       </c>
       <c r="F24">
-        <v>7.127313074424364</v>
+        <v>7.110637713171684</v>
       </c>
       <c r="G24">
-        <v>6.036910877179963</v>
+        <v>2.054131193306404</v>
       </c>
       <c r="H24">
-        <v>1.663740155877505</v>
+        <v>3.96674707743361</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.665501001863774</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.102069754586324</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>8.09481932513205</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.256122685861897</v>
+        <v>4.255730763043573</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1600796627297996</v>
+        <v>0.1593294871787236</v>
       </c>
       <c r="E25">
-        <v>0.8300328421697856</v>
+        <v>0.8287191805133318</v>
       </c>
       <c r="F25">
-        <v>5.389269693361825</v>
+        <v>5.377567339101518</v>
       </c>
       <c r="G25">
-        <v>4.551992500304465</v>
+        <v>1.548454681327769</v>
       </c>
       <c r="H25">
-        <v>1.340201554655991</v>
+        <v>2.993326835988682</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.341725551649333</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.449815364044952</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>6.444667027140298</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.542147481199379</v>
+        <v>0.2742416277525734</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1219639968900026</v>
+        <v>0.1267728378124815</v>
       </c>
       <c r="E2">
-        <v>0.7019451017921341</v>
+        <v>0.04746872502822441</v>
       </c>
       <c r="F2">
-        <v>4.271585274966384</v>
+        <v>9.316623870885024</v>
       </c>
       <c r="G2">
-        <v>1.225925952064429</v>
+        <v>0.0006952939898685634</v>
       </c>
       <c r="H2">
-        <v>2.375064652193032</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.126732405620189</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3444034396663795</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>8.835685100708986</v>
       </c>
       <c r="L2">
-        <v>5.305266468775727</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.5978718494079232</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.06717380362187</v>
+        <v>0.2391381092828482</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09975607193235447</v>
+        <v>0.1027176741007381</v>
       </c>
       <c r="E3">
-        <v>0.6160329961424011</v>
+        <v>0.04268534020289216</v>
       </c>
       <c r="F3">
-        <v>3.589187515424925</v>
+        <v>7.933127769919366</v>
       </c>
       <c r="G3">
-        <v>1.026915521455848</v>
+        <v>0.0007240163489680209</v>
       </c>
       <c r="H3">
-        <v>1.994971488423758</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.991370515438021</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2949467788947402</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>7.439784935604735</v>
       </c>
       <c r="L3">
-        <v>4.561790122909315</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.6714336174200568</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.77845171006004</v>
+        <v>0.2178705872309337</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08722684529167424</v>
+        <v>0.08945478380113059</v>
       </c>
       <c r="E4">
-        <v>0.5632219903055784</v>
+        <v>0.03995795319103834</v>
       </c>
       <c r="F4">
-        <v>3.194256556500051</v>
+        <v>7.162336052151062</v>
       </c>
       <c r="G4">
-        <v>0.9117071591501826</v>
+        <v>0.0007412780488512385</v>
       </c>
       <c r="H4">
-        <v>1.775558612330784</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9122809174907331</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2671963848725341</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>6.638911640535241</v>
       </c>
       <c r="L4">
-        <v>4.115131593283564</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.717536255410721</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.661362231984242</v>
+        <v>0.2092642762243315</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08234828384533444</v>
+        <v>0.08433737702830513</v>
       </c>
       <c r="E5">
-        <v>0.5416797355202263</v>
+        <v>0.03888845924295481</v>
       </c>
       <c r="F5">
-        <v>3.03828685790748</v>
+        <v>6.863602132481617</v>
       </c>
       <c r="G5">
-        <v>0.8661960569192502</v>
+        <v>0.0007482664031230879</v>
       </c>
       <c r="H5">
-        <v>1.68903279870716</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8809276749146449</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.256399331940699</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.3233402147155</v>
       </c>
       <c r="L5">
-        <v>3.935071464943491</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.7365858392768168</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.641949488175158</v>
+        <v>0.2078385552786415</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08155060809826864</v>
+        <v>0.08350281067642129</v>
       </c>
       <c r="E6">
-        <v>0.5381012302196098</v>
+        <v>0.03871314470229414</v>
       </c>
       <c r="F6">
-        <v>3.012660178231101</v>
+        <v>6.814820244623519</v>
       </c>
       <c r="G6">
-        <v>0.8587175088747045</v>
+        <v>0.0007494251919874428</v>
       </c>
       <c r="H6">
-        <v>1.674823405793688</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8757708283193182</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2546338753260358</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>6.271511606325276</v>
       </c>
       <c r="L6">
-        <v>3.905277384674918</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.7397654691650288</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.776870505115255</v>
+        <v>0.2177542886975061</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.08716019202160652</v>
+        <v>0.0893847067316571</v>
       </c>
       <c r="E7">
-        <v>0.5629315569626954</v>
+        <v>0.0399433718509048</v>
       </c>
       <c r="F7">
-        <v>3.192134272097405</v>
+        <v>7.158249904774124</v>
       </c>
       <c r="G7">
-        <v>0.9110879418109619</v>
+        <v>0.0007413724285572327</v>
       </c>
       <c r="H7">
-        <v>1.774380752275391</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9118546931074007</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2670488642140612</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6.63461576220439</v>
       </c>
       <c r="L7">
-        <v>4.112695933923959</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.7177920735700312</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.377663750026556</v>
+        <v>0.2620707357170886</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.114043074493118</v>
+        <v>0.1181006859120686</v>
       </c>
       <c r="E8">
-        <v>0.6723308061668263</v>
+        <v>0.04576830671791043</v>
       </c>
       <c r="F8">
-        <v>4.030581861460604</v>
+        <v>8.820141543441679</v>
       </c>
       <c r="G8">
-        <v>1.155645798081864</v>
+        <v>0.0007053090847546572</v>
       </c>
       <c r="H8">
-        <v>2.240695360727273</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.079136802617995</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3267042653590124</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>8.340343532795032</v>
       </c>
       <c r="L8">
-        <v>5.046531112504198</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.6230618225159716</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.588122758226461</v>
+        <v>0.3519667779264779</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1785258788259654</v>
+        <v>0.1930438394423675</v>
       </c>
       <c r="E9">
-        <v>0.8868185215726214</v>
+        <v>0.05961926077363344</v>
       </c>
       <c r="F9">
-        <v>5.928429760728079</v>
+        <v>13.01997488881074</v>
       </c>
       <c r="G9">
-        <v>1.709135932982974</v>
+        <v>0.0006281740183154869</v>
       </c>
       <c r="H9">
-        <v>3.30216741096342</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.446479698858667</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4749342395563332</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>12.37172164796954</v>
       </c>
       <c r="L9">
-        <v>6.985714322478174</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.4425322683617381</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.51377481627577</v>
+        <v>0.4215638466091178</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2389104299962099</v>
+        <v>0.2794575836725244</v>
       </c>
       <c r="E10">
-        <v>1.045406294439701</v>
+        <v>0.07347427429438724</v>
       </c>
       <c r="F10">
-        <v>7.59835408562023</v>
+        <v>17.60521199522179</v>
       </c>
       <c r="G10">
-        <v>2.196535083465704</v>
+        <v>0.0005574982864490989</v>
       </c>
       <c r="H10">
-        <v>4.2415684221601</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.753420111781296</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6335015011081282</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.45731094925216</v>
       </c>
       <c r="L10">
-        <v>8.533426772854966</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.3058476357011415</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.94817464841924</v>
+        <v>0.4550881435892649</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2713220524631765</v>
+        <v>0.3419008148225373</v>
       </c>
       <c r="E11">
-        <v>1.11821711144934</v>
+        <v>0.08227525704259975</v>
       </c>
       <c r="F11">
-        <v>8.460954594492989</v>
+        <v>20.75022277161838</v>
       </c>
       <c r="G11">
-        <v>2.448526068841716</v>
+        <v>0.0005142921589915025</v>
       </c>
       <c r="H11">
-        <v>4.7284936539684</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.905246708069726</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7405903294353493</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.12024011986051</v>
       </c>
       <c r="L11">
-        <v>9.284344598238278</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.2364116473116695</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.115250748757887</v>
+        <v>0.4684253938449814</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2845924517494893</v>
+        <v>0.3754191903085058</v>
       </c>
       <c r="E12">
-        <v>1.145953402074397</v>
+        <v>0.08662037692170443</v>
       </c>
       <c r="F12">
-        <v>8.808139944789275</v>
+        <v>22.38095038541792</v>
       </c>
       <c r="G12">
-        <v>2.549998650214832</v>
+        <v>0.000493192895128464</v>
       </c>
       <c r="H12">
-        <v>4.924772187628207</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.964991172767355</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7956146283469252</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>20.46436252039712</v>
       </c>
       <c r="L12">
-        <v>9.578083358026163</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.2064388784181048</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.079139760374346</v>
+        <v>0.4655054521719819</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.281683991710338</v>
+        <v>0.3674088853931323</v>
       </c>
       <c r="E13">
-        <v>1.1399710173459</v>
+        <v>0.08560510532194598</v>
       </c>
       <c r="F13">
-        <v>8.732332545398577</v>
+        <v>21.99487639400473</v>
       </c>
       <c r="G13">
-        <v>2.527839741623637</v>
+        <v>0.0004981155962205804</v>
       </c>
       <c r="H13">
-        <v>4.881900875444103</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.952014084994715</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7826183148872303</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.14822032803846</v>
       </c>
       <c r="L13">
-        <v>9.514348509619168</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.2132007254269226</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.961863674112749</v>
+        <v>0.4561667730743153</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2723916955775536</v>
+        <v>0.3443543247922634</v>
       </c>
       <c r="E14">
-        <v>1.120495151779039</v>
+        <v>0.08260202944801875</v>
       </c>
       <c r="F14">
-        <v>8.489063517612834</v>
+        <v>20.87094886665722</v>
       </c>
       <c r="G14">
-        <v>2.456740430654037</v>
+        <v>0.0005127019307462522</v>
       </c>
       <c r="H14">
-        <v>4.744378595059686</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.910113302235345</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.74467553671019</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.22055310854361</v>
       </c>
       <c r="L14">
-        <v>9.308303072029275</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.2340625724828271</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.890388599335495</v>
+        <v>0.450555705613823</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2668405528394118</v>
+        <v>0.3319843682199632</v>
       </c>
       <c r="E15">
-        <v>1.108589778552869</v>
+        <v>0.08094023574716402</v>
       </c>
       <c r="F15">
-        <v>8.342944588186128</v>
+        <v>20.2600912612026</v>
       </c>
       <c r="G15">
-        <v>2.414041687873208</v>
+        <v>0.0005207968435731376</v>
       </c>
       <c r="H15">
-        <v>4.661815812913289</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.88475884450645</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.723985741574424</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.71160820024346</v>
       </c>
       <c r="L15">
-        <v>9.183415208246117</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.2461731715696232</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.485704912476194</v>
+        <v>0.4194284481671104</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2369132707262622</v>
+        <v>0.2761392679221899</v>
       </c>
       <c r="E16">
-        <v>1.04066634994291</v>
+        <v>0.07297956180343235</v>
       </c>
       <c r="F16">
-        <v>7.54448647632384</v>
+        <v>17.43416325168039</v>
       </c>
       <c r="G16">
-        <v>2.180804308684884</v>
+        <v>0.0005599553575693086</v>
       </c>
       <c r="H16">
-        <v>4.211197046997142</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.743781986112495</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6276397631094142</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.30954268226256</v>
       </c>
       <c r="L16">
-        <v>8.485496082476431</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.310120944542966</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.241255013896421</v>
+        <v>0.4009233348121057</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2199856670624882</v>
+        <v>0.2496083273065466</v>
       </c>
       <c r="E17">
-        <v>0.9992060511341236</v>
+        <v>0.06892092010219031</v>
       </c>
       <c r="F17">
-        <v>7.084372040590921</v>
+        <v>16.05223846480789</v>
       </c>
       <c r="G17">
-        <v>2.046463501731381</v>
+        <v>0.0005802671952556959</v>
       </c>
       <c r="H17">
-        <v>3.951957122907714</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.660724720363817</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.580135160526126</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.10344461947665</v>
       </c>
       <c r="L17">
-        <v>8.070897423928386</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.3467774849986611</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.101856815964766</v>
+        <v>0.3904275109346003</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2106920121556328</v>
+        <v>0.236048029907451</v>
       </c>
       <c r="E18">
-        <v>0.9754164681217929</v>
+        <v>0.0667736575253528</v>
       </c>
       <c r="F18">
-        <v>6.828966534401985</v>
+        <v>15.33602758666899</v>
       </c>
       <c r="G18">
-        <v>1.971910457018794</v>
+        <v>0.000591139953289233</v>
       </c>
       <c r="H18">
-        <v>3.808197339761932</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.614063153267679</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5554097058285947</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.4693251936591</v>
       </c>
       <c r="L18">
-        <v>7.836635085846694</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.3673705254979609</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.054849133967821</v>
+        <v>0.386895285118996</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2076146119085109</v>
+        <v>0.2316882605352646</v>
       </c>
       <c r="E19">
-        <v>0.9673700698428149</v>
+        <v>0.06607251737951358</v>
       </c>
       <c r="F19">
-        <v>6.743941122122976</v>
+        <v>15.10432951946706</v>
       </c>
       <c r="G19">
-        <v>1.947094239533897</v>
+        <v>0.0005947117290295626</v>
       </c>
       <c r="H19">
-        <v>3.760362264888442</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.598442606041004</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5473951023094372</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.26279049655543</v>
       </c>
       <c r="L19">
-        <v>7.75797655694555</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.374282444486262</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.267148588459008</v>
+        <v>0.4028769051582088</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2217401564071508</v>
+        <v>0.2522405469153455</v>
       </c>
       <c r="E20">
-        <v>1.003613268743536</v>
+        <v>0.06933193204254451</v>
       </c>
       <c r="F20">
-        <v>7.132361984061845</v>
+        <v>16.19048604439172</v>
       </c>
       <c r="G20">
-        <v>2.060473225473999</v>
+        <v>0.0005781966971280307</v>
       </c>
       <c r="H20">
-        <v>3.978980624472257</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.669448281667385</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5848994432525103</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.22511592362264</v>
       </c>
       <c r="L20">
-        <v>8.11458145113653</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.3429325056668873</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.996233913862625</v>
+        <v>0.458884398334348</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2750910319414146</v>
+        <v>0.350711835319899</v>
       </c>
       <c r="E21">
-        <v>1.126210463513246</v>
+        <v>0.08344228662959807</v>
       </c>
       <c r="F21">
-        <v>8.559900816305031</v>
+        <v>21.18277435101714</v>
       </c>
       <c r="G21">
-        <v>2.477442290275064</v>
+        <v>0.0005086159290467132</v>
       </c>
       <c r="H21">
-        <v>4.784415123680361</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.922354607094661</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7552186565759911</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>19.47904450210046</v>
       </c>
       <c r="L21">
-        <v>9.368541758179958</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.2280940884885396</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.488297149242953</v>
+        <v>0.458884398334348</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3160244826343757</v>
+        <v>0.350711835319899</v>
       </c>
       <c r="E22">
-        <v>1.207363492937532</v>
+        <v>0.08344228662959807</v>
       </c>
       <c r="F22">
-        <v>9.6176186206593</v>
+        <v>21.18277435101714</v>
       </c>
       <c r="G22">
-        <v>2.786704534043736</v>
+        <v>0.0005086159290467132</v>
       </c>
       <c r="H22">
-        <v>5.383038673633337</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.101150798169982</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7552186565759911</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>19.47904450210046</v>
       </c>
       <c r="L22">
-        <v>10.24505719265903</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.2280940884885396</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.2239518353677</v>
+        <v>0.458884398334348</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2934858532300808</v>
+        <v>0.350711835319899</v>
       </c>
       <c r="E23">
-        <v>1.163920700345699</v>
+        <v>0.08344228662959807</v>
       </c>
       <c r="F23">
-        <v>9.038970632135005</v>
+        <v>21.18277435101714</v>
       </c>
       <c r="G23">
-        <v>2.617480531401867</v>
+        <v>0.0005086159290467132</v>
       </c>
       <c r="H23">
-        <v>5.055361940007401</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.004269797706328</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7552186565759911</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>19.47904450210046</v>
       </c>
       <c r="L23">
-        <v>9.770790394482162</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.2280940884885396</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.255438600765387</v>
+        <v>0.458884398334348</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2209456061368513</v>
+        <v>0.350711835319899</v>
       </c>
       <c r="E24">
-        <v>1.00162062530697</v>
+        <v>0.08344228662959807</v>
       </c>
       <c r="F24">
-        <v>7.110637713171684</v>
+        <v>21.18277435101714</v>
       </c>
       <c r="G24">
-        <v>2.054131193306404</v>
+        <v>0.0005086159290467132</v>
       </c>
       <c r="H24">
-        <v>3.96674707743361</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.665501001863774</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7552186565759911</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.47904450210046</v>
       </c>
       <c r="L24">
-        <v>8.09481932513205</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.2280940884885396</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.255730763043573</v>
+        <v>0.458884398334348</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1593294871787236</v>
+        <v>0.350711835319899</v>
       </c>
       <c r="E25">
-        <v>0.8287191805133318</v>
+        <v>0.08344228662959807</v>
       </c>
       <c r="F25">
-        <v>5.377567339101518</v>
+        <v>21.18277435101714</v>
       </c>
       <c r="G25">
-        <v>1.548454681327769</v>
+        <v>0.0005086159290467132</v>
       </c>
       <c r="H25">
-        <v>2.993326835988682</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.341725551649333</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7552186565759911</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.47904450210046</v>
       </c>
       <c r="L25">
-        <v>6.444667027140298</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.2280940884885396</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2742416277525734</v>
+        <v>0.8386210488554298</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1267728378124815</v>
+        <v>0.05562970203494189</v>
       </c>
       <c r="E2">
-        <v>0.04746872502822441</v>
+        <v>0.156637299823013</v>
       </c>
       <c r="F2">
-        <v>9.316623870885024</v>
+        <v>0.5563348000299086</v>
       </c>
       <c r="G2">
-        <v>0.0006952939898685634</v>
+        <v>0.00080096304769845</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3444034396663795</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.835685100708986</v>
+        <v>1.247362460289565</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1737203138329875</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2024396421860608</v>
       </c>
       <c r="N2">
-        <v>0.5978718494079232</v>
+        <v>1.052549650708267</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.64730305378967</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2391381092828482</v>
+        <v>0.7531840975417197</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1027176741007381</v>
+        <v>0.05051443797784572</v>
       </c>
       <c r="E3">
-        <v>0.04268534020289216</v>
+        <v>0.1604623898544029</v>
       </c>
       <c r="F3">
-        <v>7.933127769919366</v>
+        <v>0.5217594994333936</v>
       </c>
       <c r="G3">
-        <v>0.0007240163489680209</v>
+        <v>0.000804551098661288</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2949467788947402</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>7.439784935604735</v>
+        <v>1.098450595585575</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1516569781417942</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1796435508429468</v>
       </c>
       <c r="N3">
-        <v>0.6714336174200568</v>
+        <v>1.100631894108126</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.579689245839489</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2178705872309337</v>
+        <v>0.7013825755934135</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.08945478380113059</v>
+        <v>0.04736049935088715</v>
       </c>
       <c r="E4">
-        <v>0.03995795319103834</v>
+        <v>0.162941317872201</v>
       </c>
       <c r="F4">
-        <v>7.162336052151062</v>
+        <v>0.5014616166838692</v>
       </c>
       <c r="G4">
-        <v>0.0007412780488512385</v>
+        <v>0.0008068308467498892</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2671963848725341</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>6.638911640535241</v>
+        <v>1.006947038347022</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1382028539317659</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1657888285850362</v>
       </c>
       <c r="N4">
-        <v>0.717536255410721</v>
+        <v>1.131399622979133</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.541154159234168</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2092642762243315</v>
+        <v>0.6804276147611006</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.08433737702830513</v>
+        <v>0.04607172281406235</v>
       </c>
       <c r="E5">
-        <v>0.03888845924295481</v>
+        <v>0.1639840170092097</v>
       </c>
       <c r="F5">
-        <v>6.863602132481617</v>
+        <v>0.4934117915857286</v>
       </c>
       <c r="G5">
-        <v>0.0007482664031230879</v>
+        <v>0.0008077794413912442</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.256399331940699</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>6.3233402147155</v>
+        <v>0.9696293835762333</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1327409161247317</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1601758858768747</v>
       </c>
       <c r="N5">
-        <v>0.7365858392768168</v>
+        <v>1.1442446410354</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.526163687225193</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2078385552786415</v>
+        <v>0.6769570937845799</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.08350281067642129</v>
+        <v>0.04585750372154251</v>
       </c>
       <c r="E6">
-        <v>0.03871314470229414</v>
+        <v>0.1641591131193518</v>
       </c>
       <c r="F6">
-        <v>6.814820244623519</v>
+        <v>0.4920881613805292</v>
       </c>
       <c r="G6">
-        <v>0.0007494251919874428</v>
+        <v>0.0008079381457771704</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2546338753260358</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>6.271511606325276</v>
+        <v>0.9634307318103197</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1318351432069917</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1592457735194017</v>
       </c>
       <c r="N6">
-        <v>0.7397654691650288</v>
+        <v>1.146395908881919</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.52371655352519</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2177542886975061</v>
+        <v>0.7010993574934332</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0893847067316571</v>
+        <v>0.04734313299235282</v>
       </c>
       <c r="E7">
-        <v>0.0399433718509048</v>
+        <v>0.1629552487458494</v>
       </c>
       <c r="F7">
-        <v>7.158249904774124</v>
+        <v>0.5013521722677368</v>
       </c>
       <c r="G7">
-        <v>0.0007413724285572327</v>
+        <v>0.0008068435602175187</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2670488642140612</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>6.63461576220439</v>
+        <v>1.006443892213952</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1381291117765215</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.16571300056453</v>
       </c>
       <c r="N7">
-        <v>0.7177920735700312</v>
+        <v>1.131571620606675</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.540949152978385</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2620707357170886</v>
+        <v>0.8090194094659182</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1181006859120686</v>
+        <v>0.05386855290442583</v>
       </c>
       <c r="E8">
-        <v>0.04576830671791043</v>
+        <v>0.1579289922175295</v>
       </c>
       <c r="F8">
-        <v>8.820141543441679</v>
+        <v>0.5442121883696558</v>
       </c>
       <c r="G8">
-        <v>0.0007053090847546572</v>
+        <v>0.000802184478888409</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3267042653590124</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8.340343532795032</v>
+        <v>1.196025332990928</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1660919794761284</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1945483207791945</v>
       </c>
       <c r="N8">
-        <v>0.6230618225159716</v>
+        <v>1.068866219015873</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.623348790905226</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3519667779264779</v>
+        <v>1.026380216035676</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1930438394423675</v>
+        <v>0.06657141924796406</v>
       </c>
       <c r="E9">
-        <v>0.05961926077363344</v>
+        <v>0.1491180143086068</v>
       </c>
       <c r="F9">
-        <v>13.01997488881074</v>
+        <v>0.6362489229016717</v>
       </c>
       <c r="G9">
-        <v>0.0006281740183154869</v>
+        <v>0.0007936421376774703</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4749342395563332</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>12.37172164796954</v>
+        <v>1.567791037517708</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2217911418731546</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2523571452463038</v>
       </c>
       <c r="N9">
-        <v>0.4425322683617381</v>
+        <v>0.9560674249111338</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.810320479350935</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4215638466091178</v>
+        <v>1.190338972012739</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2794575836725244</v>
+        <v>0.07586397644548271</v>
       </c>
       <c r="E10">
-        <v>0.07347427429438724</v>
+        <v>0.1432984309503817</v>
       </c>
       <c r="F10">
-        <v>17.60521199522179</v>
+        <v>0.7096204865910778</v>
       </c>
       <c r="G10">
-        <v>0.0005574982864490989</v>
+        <v>0.0007877073385937853</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6335015011081282</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>16.45731094925216</v>
+        <v>1.841780687516717</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.263430859888075</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2958007072212894</v>
       </c>
       <c r="N10">
-        <v>0.3058476357011415</v>
+        <v>0.8798070872489783</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.965733775100148</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4550881435892649</v>
+        <v>1.26603606466162</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3419008148225373</v>
+        <v>0.08008664185077663</v>
       </c>
       <c r="E11">
-        <v>0.08227525704259975</v>
+        <v>0.1407967597211419</v>
       </c>
       <c r="F11">
-        <v>20.75022277161838</v>
+        <v>0.7444569152605851</v>
       </c>
       <c r="G11">
-        <v>0.0005142921589915025</v>
+        <v>0.0007850766689794913</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7405903294353493</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>19.12024011986051</v>
+        <v>1.966816463935515</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2825749858312179</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3158229719386085</v>
       </c>
       <c r="N11">
-        <v>0.2364116473116695</v>
+        <v>0.8466480155310125</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>2.040962521207348</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4684253938449814</v>
+        <v>1.294876249909919</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3754191903085058</v>
+        <v>0.08168533150290358</v>
       </c>
       <c r="E12">
-        <v>0.08662037692170443</v>
+        <v>0.1398707394111707</v>
       </c>
       <c r="F12">
-        <v>22.38095038541792</v>
+        <v>0.7578769194908404</v>
       </c>
       <c r="G12">
-        <v>0.000493192895128464</v>
+        <v>0.0007840900177046781</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7956146283469252</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>20.46436252039712</v>
+        <v>2.014239190692933</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.289857379642001</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3234463666773308</v>
       </c>
       <c r="N12">
-        <v>0.2064388784181048</v>
+        <v>0.8343207450084935</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>2.070155350362228</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4655054521719819</v>
+        <v>1.288656943944943</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3674088853931323</v>
+        <v>0.08134103506927204</v>
       </c>
       <c r="E13">
-        <v>0.08560510532194598</v>
+        <v>0.1400692208367902</v>
       </c>
       <c r="F13">
-        <v>21.99487639400473</v>
+        <v>0.754976226535149</v>
       </c>
       <c r="G13">
-        <v>0.0004981155962205804</v>
+        <v>0.0007843020938591342</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7826183148872303</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>20.14822032803846</v>
+        <v>2.004022258653009</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2882874566842162</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3218026233374545</v>
       </c>
       <c r="N13">
-        <v>0.2132007254269226</v>
+        <v>0.8369652929453522</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>2.063835885226268</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4561667730743153</v>
+        <v>1.268405157557737</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3443543247922634</v>
+        <v>0.08021817199227144</v>
       </c>
       <c r="E14">
-        <v>0.08260202944801875</v>
+        <v>0.1407201462973431</v>
       </c>
       <c r="F14">
-        <v>20.87094886665722</v>
+        <v>0.7455563040008997</v>
       </c>
       <c r="G14">
-        <v>0.0005127019307462522</v>
+        <v>0.0007849953080941095</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.74467553671019</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>19.22055310854361</v>
+        <v>1.970716365086503</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2831734296381256</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3164492992625867</v>
       </c>
       <c r="N14">
-        <v>0.2340625724828271</v>
+        <v>0.8456291932803186</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.043349775237317</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.450555705613823</v>
+        <v>1.256023665519791</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3319843682199632</v>
+        <v>0.07953035106692141</v>
       </c>
       <c r="E15">
-        <v>0.08094023574716402</v>
+        <v>0.1411216428907869</v>
       </c>
       <c r="F15">
-        <v>20.2600912612026</v>
+        <v>0.7398166141491203</v>
       </c>
       <c r="G15">
-        <v>0.0005207968435731376</v>
+        <v>0.0007854211498655728</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.723985741574424</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.71160820024346</v>
+        <v>1.950325769589483</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2800453483917522</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3131757502995711</v>
       </c>
       <c r="N15">
-        <v>0.2461731715696232</v>
+        <v>0.850966228344344</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2.030894958006371</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4194284481671104</v>
+        <v>1.185415657747853</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2761392679221899</v>
+        <v>0.07558794987492234</v>
       </c>
       <c r="E16">
-        <v>0.07297956180343235</v>
+        <v>0.1434648828546399</v>
       </c>
       <c r="F16">
-        <v>17.43416325168039</v>
+        <v>0.7073747509434156</v>
       </c>
       <c r="G16">
-        <v>0.0005599553575693086</v>
+        <v>0.0007878806149856081</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6276397631094142</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>16.30954268226256</v>
+        <v>1.833618740003033</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2621841368920599</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2944977703878919</v>
       </c>
       <c r="N16">
-        <v>0.310120944542966</v>
+        <v>0.882005700244509</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.960913085810461</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4009233348121057</v>
+        <v>1.142395327685477</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2496083273065466</v>
+        <v>0.07316846244526687</v>
       </c>
       <c r="E17">
-        <v>0.06892092010219031</v>
+        <v>0.1449399476117375</v>
       </c>
       <c r="F17">
-        <v>16.05223846480789</v>
+        <v>0.6878591696412997</v>
       </c>
       <c r="G17">
-        <v>0.0005802671952556959</v>
+        <v>0.0007894068311603095</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.580135160526126</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>15.10344461947665</v>
+        <v>1.762136270899532</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2512812803944655</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2831087311909428</v>
       </c>
       <c r="N17">
-        <v>0.3467774849986611</v>
+        <v>0.9014460774979693</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.919179025156836</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3904275109346003</v>
+        <v>1.117754798631012</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.236048029907451</v>
+        <v>0.07177638752823867</v>
       </c>
       <c r="E18">
-        <v>0.0667736575253528</v>
+        <v>0.1458020559393445</v>
       </c>
       <c r="F18">
-        <v>15.33602758666899</v>
+        <v>0.6767705142196121</v>
       </c>
       <c r="G18">
-        <v>0.000591139953289233</v>
+        <v>0.0007902912002196252</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5554097058285947</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>14.4693251936591</v>
+        <v>1.721057651543532</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2450290122947933</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2765822299426475</v>
       </c>
       <c r="N18">
-        <v>0.3673705254979609</v>
+        <v>0.9127713071735117</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.89559769204098</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.386895285118996</v>
+        <v>1.109429280127046</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2316882605352646</v>
+        <v>0.07130496838736633</v>
       </c>
       <c r="E19">
-        <v>0.06607251737951358</v>
+        <v>0.1460962916774093</v>
       </c>
       <c r="F19">
-        <v>15.10432951946706</v>
+        <v>0.6730389373306593</v>
       </c>
       <c r="G19">
-        <v>0.0005947117290295626</v>
+        <v>0.0007905917659980549</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5473951023094372</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>14.26279049655543</v>
+        <v>1.707154846888102</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2429152109461796</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.2743765007008605</v>
       </c>
       <c r="N19">
-        <v>0.374282444486262</v>
+        <v>0.9166302394245123</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.887684525061644</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4028769051582088</v>
+        <v>1.146964081011845</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2522405469153455</v>
+        <v>0.07342606534627549</v>
       </c>
       <c r="E20">
-        <v>0.06933193204254451</v>
+        <v>0.1447815050413608</v>
       </c>
       <c r="F20">
-        <v>16.19048604439172</v>
+        <v>0.689922412271855</v>
       </c>
       <c r="G20">
-        <v>0.0005781966971280307</v>
+        <v>0.0007892436898372484</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5848994432525103</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>15.22511592362264</v>
+        <v>1.76974183281979</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2524399385386999</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2843185834041648</v>
       </c>
       <c r="N20">
-        <v>0.3429325056668873</v>
+        <v>0.8993616864570275</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.923577530181376</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.458884398334348</v>
+        <v>1.27434871084273</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.350711835319899</v>
+        <v>0.08054799077291364</v>
       </c>
       <c r="E21">
-        <v>0.08344228662959807</v>
+        <v>0.1405283724523336</v>
       </c>
       <c r="F21">
-        <v>21.18277435101714</v>
+        <v>0.7483168177839303</v>
       </c>
       <c r="G21">
-        <v>0.0005086159290467132</v>
+        <v>0.000784791439122755</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7552186565759911</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>19.47904450210046</v>
+        <v>1.980496949409627</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2846746174249546</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.318020543006206</v>
       </c>
       <c r="N21">
-        <v>0.2280940884885396</v>
+        <v>0.8430780964247209</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.049347452202312</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.458884398334348</v>
+        <v>1.358631872692825</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.350711835319899</v>
+        <v>0.08520074766686747</v>
       </c>
       <c r="E22">
-        <v>0.08344228662959807</v>
+        <v>0.1378730864609032</v>
       </c>
       <c r="F22">
-        <v>21.18277435101714</v>
+        <v>0.7878205098177631</v>
       </c>
       <c r="G22">
-        <v>0.0005086159290467132</v>
+        <v>0.0007819369543828912</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.7552186565759911</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>19.47904450210046</v>
+        <v>2.118680238575308</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.305935772950491</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3402901046840938</v>
       </c>
       <c r="N22">
-        <v>0.2280940884885396</v>
+        <v>0.8076349544730164</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.135684293620699</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.458884398334348</v>
+        <v>1.313548731989584</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.350711835319899</v>
+        <v>0.08271754216018223</v>
       </c>
       <c r="E23">
-        <v>0.08344228662959807</v>
+        <v>0.139278757822014</v>
       </c>
       <c r="F23">
-        <v>21.18277435101714</v>
+        <v>0.7666076844878944</v>
       </c>
       <c r="G23">
-        <v>0.0005086159290467132</v>
+        <v>0.0007834555269614679</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7552186565759911</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>19.47904450210046</v>
+        <v>2.044882627213383</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2945691972120272</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3283807346885723</v>
       </c>
       <c r="N23">
-        <v>0.2280940884885396</v>
+        <v>0.8264257498280809</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.08920721472461</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.458884398334348</v>
+        <v>1.144898260890045</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.350711835319899</v>
+        <v>0.07330960645987261</v>
       </c>
       <c r="E24">
-        <v>0.08344228662959807</v>
+        <v>0.1448530931171206</v>
       </c>
       <c r="F24">
-        <v>21.18277435101714</v>
+        <v>0.688989213266666</v>
       </c>
       <c r="G24">
-        <v>0.0005086159290467132</v>
+        <v>0.0007893174244080836</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7552186565759911</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>19.47904450210046</v>
+        <v>1.76630330473958</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.251916059865593</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2837715434616328</v>
       </c>
       <c r="N24">
-        <v>0.2280940884885396</v>
+        <v>0.9003035771625933</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.921587686383134</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.458884398334348</v>
+        <v>0.9668880611543784</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.350711835319899</v>
+        <v>0.06314329271842212</v>
       </c>
       <c r="E25">
-        <v>0.08344228662959807</v>
+        <v>0.1513880406184578</v>
       </c>
       <c r="F25">
-        <v>21.18277435101714</v>
+        <v>0.6104074596518956</v>
       </c>
       <c r="G25">
-        <v>0.0005086159290467132</v>
+        <v>0.0007958915618748367</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7552186565759911</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.47904450210046</v>
+        <v>1.467134055163626</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2066115463048419</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2365630396115179</v>
       </c>
       <c r="N25">
-        <v>0.2280940884885396</v>
+        <v>0.9854527630957439</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.756766213048849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8386210488554298</v>
+        <v>0.9635149859347223</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05562970203494189</v>
+        <v>0.03284191414364557</v>
       </c>
       <c r="E2">
-        <v>0.156637299823013</v>
+        <v>0.3616638282185383</v>
       </c>
       <c r="F2">
-        <v>0.5563348000299086</v>
+        <v>0.8103571534480807</v>
       </c>
       <c r="G2">
-        <v>0.00080096304769845</v>
+        <v>0.002438768298994252</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.247362460289565</v>
+        <v>0.3794774899967308</v>
       </c>
       <c r="L2">
-        <v>0.1737203138329875</v>
+        <v>0.1096003322991379</v>
       </c>
       <c r="M2">
-        <v>0.2024396421860608</v>
+        <v>0.1927093455183346</v>
       </c>
       <c r="N2">
-        <v>1.052549650708267</v>
+        <v>2.147324177306682</v>
       </c>
       <c r="O2">
-        <v>1.64730305378967</v>
+        <v>2.821822959616128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7531840975417197</v>
+        <v>0.9448167195582187</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05051443797784572</v>
+        <v>0.03105887091933113</v>
       </c>
       <c r="E3">
-        <v>0.1604623898544029</v>
+        <v>0.364042379067913</v>
       </c>
       <c r="F3">
-        <v>0.5217594994333936</v>
+        <v>0.8069291697227783</v>
       </c>
       <c r="G3">
-        <v>0.000804551098661288</v>
+        <v>0.002441190921033108</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.098450595585575</v>
+        <v>0.3326898033872112</v>
       </c>
       <c r="L3">
-        <v>0.1516569781417942</v>
+        <v>0.1038290825171799</v>
       </c>
       <c r="M3">
-        <v>0.1796435508429468</v>
+        <v>0.1873183987160267</v>
       </c>
       <c r="N3">
-        <v>1.100631894108126</v>
+        <v>2.167958780013794</v>
       </c>
       <c r="O3">
-        <v>1.579689245839489</v>
+        <v>2.823792047177506</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7013825755934135</v>
+        <v>0.9337688813018588</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04736049935088715</v>
+        <v>0.02995268740206569</v>
       </c>
       <c r="E4">
-        <v>0.162941317872201</v>
+        <v>0.3655912990694961</v>
       </c>
       <c r="F4">
-        <v>0.5014616166838692</v>
+        <v>0.8052877644600258</v>
       </c>
       <c r="G4">
-        <v>0.0008068308467498892</v>
+        <v>0.002442759368287969</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.006947038347022</v>
+        <v>0.3038275644057364</v>
       </c>
       <c r="L4">
-        <v>0.1382028539317659</v>
+        <v>0.1003331979103805</v>
       </c>
       <c r="M4">
-        <v>0.1657888285850362</v>
+        <v>0.1840965728485386</v>
       </c>
       <c r="N4">
-        <v>1.131399622979133</v>
+        <v>2.181279997314441</v>
       </c>
       <c r="O4">
-        <v>1.541154159234168</v>
+        <v>2.826517546788523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6804276147611006</v>
+        <v>0.9293761783407035</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04607172281406235</v>
+        <v>0.02949906414341541</v>
       </c>
       <c r="E5">
-        <v>0.1639840170092097</v>
+        <v>0.3662447868187053</v>
       </c>
       <c r="F5">
-        <v>0.4934117915857286</v>
+        <v>0.8047354716712007</v>
       </c>
       <c r="G5">
-        <v>0.0008077794413912442</v>
+        <v>0.002443418938322672</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9696293835762333</v>
+        <v>0.2920327093543449</v>
       </c>
       <c r="L5">
-        <v>0.1327409161247317</v>
+        <v>0.09892066805338828</v>
       </c>
       <c r="M5">
-        <v>0.1601758858768747</v>
+        <v>0.1828059543812408</v>
       </c>
       <c r="N5">
-        <v>1.1442446410354</v>
+        <v>2.186872375052797</v>
       </c>
       <c r="O5">
-        <v>1.526163687225193</v>
+        <v>2.828009678506589</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6769570937845799</v>
+        <v>0.9286533945870303</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04585750372154251</v>
+        <v>0.02942356910596544</v>
       </c>
       <c r="E6">
-        <v>0.1641591131193518</v>
+        <v>0.3663546454517999</v>
       </c>
       <c r="F6">
-        <v>0.4920881613805292</v>
+        <v>0.8046508078757668</v>
       </c>
       <c r="G6">
-        <v>0.0008079381457771704</v>
+        <v>0.002443529694098807</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9634307318103197</v>
+        <v>0.29007218984529</v>
       </c>
       <c r="L6">
-        <v>0.1318351432069917</v>
+        <v>0.09868685000395061</v>
       </c>
       <c r="M6">
-        <v>0.1592457735194017</v>
+        <v>0.1825929984847896</v>
       </c>
       <c r="N6">
-        <v>1.146395908881919</v>
+        <v>2.187810884230586</v>
       </c>
       <c r="O6">
-        <v>1.52371655352519</v>
+        <v>2.828280489731156</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7010993574934332</v>
+        <v>0.9337091962230488</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04734313299235282</v>
+        <v>0.02994658117256677</v>
       </c>
       <c r="E7">
-        <v>0.1629552487458494</v>
+        <v>0.3656000219259306</v>
       </c>
       <c r="F7">
-        <v>0.5013521722677368</v>
+        <v>0.8052798438729951</v>
       </c>
       <c r="G7">
-        <v>0.0008068435602175187</v>
+        <v>0.002442768180800969</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.006443892213952</v>
+        <v>0.3036686288112378</v>
       </c>
       <c r="L7">
-        <v>0.1381291117765215</v>
+        <v>0.1003140990544864</v>
       </c>
       <c r="M7">
-        <v>0.16571300056453</v>
+        <v>0.1840790766666487</v>
       </c>
       <c r="N7">
-        <v>1.131571620606675</v>
+        <v>2.181354754490063</v>
       </c>
       <c r="O7">
-        <v>1.540949152978385</v>
+        <v>2.826536125465026</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8090194094659182</v>
+        <v>0.9569782559154874</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05386855290442583</v>
+        <v>0.03222949533812169</v>
       </c>
       <c r="E8">
-        <v>0.1579289922175295</v>
+        <v>0.3624656134052286</v>
       </c>
       <c r="F8">
-        <v>0.5442121883696558</v>
+        <v>0.8090790465833493</v>
       </c>
       <c r="G8">
-        <v>0.000802184478888409</v>
+        <v>0.002439586854391587</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.196025332990928</v>
+        <v>0.363373303193498</v>
       </c>
       <c r="L8">
-        <v>0.1660919794761284</v>
+        <v>0.1076005544326222</v>
       </c>
       <c r="M8">
-        <v>0.1945483207791945</v>
+        <v>0.1908322995784957</v>
       </c>
       <c r="N8">
-        <v>1.068866219015873</v>
+        <v>2.154303804960953</v>
       </c>
       <c r="O8">
-        <v>1.623348790905226</v>
+        <v>2.822187233672082</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.026380216035676</v>
+        <v>1.006025252499711</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.06657141924796406</v>
+        <v>0.036615274454185</v>
       </c>
       <c r="E9">
-        <v>0.1491180143086068</v>
+        <v>0.3570192063644129</v>
       </c>
       <c r="F9">
-        <v>0.6362489229016717</v>
+        <v>0.8202045156827822</v>
       </c>
       <c r="G9">
-        <v>0.0007936421376774703</v>
+        <v>0.002433987837740301</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.567791037517708</v>
+        <v>0.479369088098025</v>
       </c>
       <c r="L9">
-        <v>0.2217911418731546</v>
+        <v>0.1222649091925518</v>
       </c>
       <c r="M9">
-        <v>0.2523571452463038</v>
+        <v>0.2047713249325689</v>
       </c>
       <c r="N9">
-        <v>0.9560674249111338</v>
+        <v>2.106423132877587</v>
       </c>
       <c r="O9">
-        <v>1.810320479350935</v>
+        <v>2.825688903273516</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.190338972012739</v>
+        <v>1.044122063902876</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07586397644548271</v>
+        <v>0.03978142215520108</v>
       </c>
       <c r="E10">
-        <v>0.1432984309503817</v>
+        <v>0.3534419028636648</v>
       </c>
       <c r="F10">
-        <v>0.7096204865910778</v>
+        <v>0.8306190833792897</v>
       </c>
       <c r="G10">
-        <v>0.0007877073385937853</v>
+        <v>0.00243026030799733</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.841780687516717</v>
+        <v>0.5639129010883153</v>
       </c>
       <c r="L10">
-        <v>0.263430859888075</v>
+        <v>0.1332653279181528</v>
       </c>
       <c r="M10">
-        <v>0.2958007072212894</v>
+        <v>0.2154322918691207</v>
       </c>
       <c r="N10">
-        <v>0.8798070872489783</v>
+        <v>2.074389218582035</v>
       </c>
       <c r="O10">
-        <v>1.965733775100148</v>
+        <v>2.835596754665545</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.26603606466162</v>
+        <v>1.061896912700973</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08008664185077663</v>
+        <v>0.0412094932510243</v>
       </c>
       <c r="E11">
-        <v>0.1407967597211419</v>
+        <v>0.3519060328180768</v>
       </c>
       <c r="F11">
-        <v>0.7444569152605851</v>
+        <v>0.8358436567501997</v>
       </c>
       <c r="G11">
-        <v>0.0007850766689794913</v>
+        <v>0.002428647577079894</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.966816463935515</v>
+        <v>0.6022236506331353</v>
       </c>
       <c r="L11">
-        <v>0.2825749858312179</v>
+        <v>0.1383184317620447</v>
       </c>
       <c r="M11">
-        <v>0.3158229719386085</v>
+        <v>0.2203725912393466</v>
       </c>
       <c r="N11">
-        <v>0.8466480155310125</v>
+        <v>2.060497699795806</v>
       </c>
       <c r="O11">
-        <v>2.040962521207348</v>
+        <v>2.841697517858563</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.294876249909919</v>
+        <v>1.068691243217501</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08168533150290358</v>
+        <v>0.04174849229332978</v>
       </c>
       <c r="E12">
-        <v>0.1398707394111707</v>
+        <v>0.3513375489736061</v>
       </c>
       <c r="F12">
-        <v>0.7578769194908404</v>
+        <v>0.8378920544620598</v>
       </c>
       <c r="G12">
-        <v>0.0007840900177046781</v>
+        <v>0.002428048743196537</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.014239190692933</v>
+        <v>0.6167091070843185</v>
       </c>
       <c r="L12">
-        <v>0.289857379642001</v>
+        <v>0.1402388848474772</v>
       </c>
       <c r="M12">
-        <v>0.3234463666773308</v>
+        <v>0.2222562795641778</v>
       </c>
       <c r="N12">
-        <v>0.8343207450084935</v>
+        <v>2.055335204824694</v>
       </c>
       <c r="O12">
-        <v>2.070155350362228</v>
+        <v>2.844236839944926</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.288656943944943</v>
+        <v>1.067225152062264</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.08134103506927204</v>
+        <v>0.04163248875253345</v>
       </c>
       <c r="E13">
-        <v>0.1400692208367902</v>
+        <v>0.3514593993302393</v>
       </c>
       <c r="F13">
-        <v>0.754976226535149</v>
+        <v>0.8374477845383836</v>
       </c>
       <c r="G13">
-        <v>0.0007843020938591342</v>
+        <v>0.002428177185515653</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.004022258653009</v>
+        <v>0.6135903928279447</v>
       </c>
       <c r="L13">
-        <v>0.2882874566842162</v>
+        <v>0.1398249731085457</v>
       </c>
       <c r="M13">
-        <v>0.3218026233374545</v>
+        <v>0.2218500215758255</v>
       </c>
       <c r="N13">
-        <v>0.8369652929453522</v>
+        <v>2.056442685146614</v>
       </c>
       <c r="O13">
-        <v>2.063835885226268</v>
+        <v>2.843679763498329</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.268405157557737</v>
+        <v>1.062454619124225</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08021817199227144</v>
+        <v>0.04125387283956172</v>
       </c>
       <c r="E14">
-        <v>0.1407201462973431</v>
+        <v>0.3518590006321123</v>
       </c>
       <c r="F14">
-        <v>0.7455563040008997</v>
+        <v>0.836010777777858</v>
       </c>
       <c r="G14">
-        <v>0.0007849953080941095</v>
+        <v>0.002428598073014777</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.970716365086503</v>
+        <v>0.603415822159775</v>
       </c>
       <c r="L14">
-        <v>0.2831734296381256</v>
+        <v>0.1384762897617406</v>
       </c>
       <c r="M14">
-        <v>0.3164492992625867</v>
+        <v>0.2205273054805659</v>
       </c>
       <c r="N14">
-        <v>0.8456291932803186</v>
+        <v>2.06007101564328</v>
       </c>
       <c r="O14">
-        <v>2.043349775237317</v>
+        <v>2.841901838389475</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.256023665519791</v>
+        <v>1.05954076842545</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07953035106692141</v>
+        <v>0.04102172711957763</v>
       </c>
       <c r="E15">
-        <v>0.1411216428907869</v>
+        <v>0.3521054751143602</v>
       </c>
       <c r="F15">
-        <v>0.7398166141491203</v>
+        <v>0.8351396795113857</v>
       </c>
       <c r="G15">
-        <v>0.0007854211498655728</v>
+        <v>0.002428857423141862</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.950325769589483</v>
+        <v>0.5971807213963984</v>
       </c>
       <c r="L15">
-        <v>0.2800453483917522</v>
+        <v>0.137651085057783</v>
       </c>
       <c r="M15">
-        <v>0.3131757502995711</v>
+        <v>0.2197187806198286</v>
       </c>
       <c r="N15">
-        <v>0.850966228344344</v>
+        <v>2.062306225583788</v>
       </c>
       <c r="O15">
-        <v>2.030894958006371</v>
+        <v>2.840842640904356</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.185415657747853</v>
+        <v>1.042969333628093</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07558794987492234</v>
+        <v>0.03968784642346179</v>
       </c>
       <c r="E16">
-        <v>0.1434648828546399</v>
+        <v>0.3535441130178762</v>
       </c>
       <c r="F16">
-        <v>0.7073747509434156</v>
+        <v>0.8302874388747341</v>
       </c>
       <c r="G16">
-        <v>0.0007878806149856081</v>
+        <v>0.002430367368155407</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.833618740003033</v>
+        <v>0.5614061595036901</v>
       </c>
       <c r="L16">
-        <v>0.2621841368920599</v>
+        <v>0.1329360733622025</v>
       </c>
       <c r="M16">
-        <v>0.2944977703878919</v>
+        <v>0.2151112439758904</v>
       </c>
       <c r="N16">
-        <v>0.882005700244509</v>
+        <v>2.075310763929693</v>
       </c>
       <c r="O16">
-        <v>1.960913085810461</v>
+        <v>2.835230117712172</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.142395327685477</v>
+        <v>1.032916747336202</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07316846244526687</v>
+        <v>0.038866406630369</v>
       </c>
       <c r="E17">
-        <v>0.1449399476117375</v>
+        <v>0.3544500713730603</v>
       </c>
       <c r="F17">
-        <v>0.6878591696412997</v>
+        <v>0.8274354228910283</v>
       </c>
       <c r="G17">
-        <v>0.0007894068311603095</v>
+        <v>0.0024313148748796</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.762136270899532</v>
+        <v>0.5394211119965178</v>
       </c>
       <c r="L17">
-        <v>0.2512812803944655</v>
+        <v>0.1300560433830924</v>
       </c>
       <c r="M17">
-        <v>0.2831087311909428</v>
+        <v>0.2123077818458299</v>
       </c>
       <c r="N17">
-        <v>0.9014460774979693</v>
+        <v>2.083463022716963</v>
       </c>
       <c r="O17">
-        <v>1.919179025156836</v>
+        <v>2.832195136820616</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.117754798631012</v>
+        <v>1.027176627783092</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07177638752823867</v>
+        <v>0.03839278682696801</v>
       </c>
       <c r="E18">
-        <v>0.1458020559393445</v>
+        <v>0.3549797657202696</v>
       </c>
       <c r="F18">
-        <v>0.6767705142196121</v>
+        <v>0.8258408546671632</v>
       </c>
       <c r="G18">
-        <v>0.0007902912002196252</v>
+        <v>0.002431867665574925</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.721057651543532</v>
+        <v>0.5267619389464926</v>
       </c>
       <c r="L18">
-        <v>0.2450290122947933</v>
+        <v>0.1284041397558155</v>
       </c>
       <c r="M18">
-        <v>0.2765822299426475</v>
+        <v>0.2107038368302128</v>
       </c>
       <c r="N18">
-        <v>0.9127713071735117</v>
+        <v>2.088216072019328</v>
       </c>
       <c r="O18">
-        <v>1.89559769204098</v>
+        <v>2.830599500344704</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.109429280127046</v>
+        <v>1.025240327818125</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07130496838736633</v>
+        <v>0.03823223058038394</v>
       </c>
       <c r="E19">
-        <v>0.1460962916774093</v>
+        <v>0.3551605911683442</v>
       </c>
       <c r="F19">
-        <v>0.6730389373306593</v>
+        <v>0.8253088353029199</v>
       </c>
       <c r="G19">
-        <v>0.0007905917659980549</v>
+        <v>0.002432056174164483</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.707154846888102</v>
+        <v>0.5224733824183261</v>
       </c>
       <c r="L19">
-        <v>0.2429152109461796</v>
+        <v>0.1278456286053142</v>
       </c>
       <c r="M19">
-        <v>0.2743765007008605</v>
+        <v>0.2101622376829582</v>
       </c>
       <c r="N19">
-        <v>0.9166302394245123</v>
+        <v>2.089836379257008</v>
       </c>
       <c r="O19">
-        <v>1.887684525061644</v>
+        <v>2.830085010644638</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.146964081011845</v>
+        <v>1.03398253353518</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07342606534627549</v>
+        <v>0.03895396941596374</v>
       </c>
       <c r="E20">
-        <v>0.1447815050413608</v>
+        <v>0.354352739605214</v>
       </c>
       <c r="F20">
-        <v>0.689922412271855</v>
+        <v>0.8277342814111108</v>
       </c>
       <c r="G20">
-        <v>0.0007892436898372484</v>
+        <v>0.002431213203263065</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.76974183281979</v>
+        <v>0.5417629066102734</v>
       </c>
       <c r="L20">
-        <v>0.2524399385386999</v>
+        <v>0.1303621506525587</v>
       </c>
       <c r="M20">
-        <v>0.2843185834041648</v>
+        <v>0.2126053329880406</v>
       </c>
       <c r="N20">
-        <v>0.8993616864570275</v>
+        <v>2.082588568135069</v>
       </c>
       <c r="O20">
-        <v>1.923577530181376</v>
+        <v>2.83250269131571</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.27434871084273</v>
+        <v>1.063854124336558</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.08054799077291364</v>
+        <v>0.0413651300130482</v>
       </c>
       <c r="E21">
-        <v>0.1405283724523336</v>
+        <v>0.35174127233861</v>
       </c>
       <c r="F21">
-        <v>0.7483168177839303</v>
+        <v>0.8364309631093789</v>
       </c>
       <c r="G21">
-        <v>0.000784791439122755</v>
+        <v>0.002428474126305847</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.980496949409627</v>
+        <v>0.6064049420003812</v>
       </c>
       <c r="L21">
-        <v>0.2846746174249546</v>
+        <v>0.1388722427704749</v>
       </c>
       <c r="M21">
-        <v>0.318020543006206</v>
+        <v>0.2209154700024385</v>
       </c>
       <c r="N21">
-        <v>0.8430780964247209</v>
+        <v>2.059002629336018</v>
       </c>
       <c r="O21">
-        <v>2.049347452202312</v>
+        <v>2.842417841046938</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.358631872692825</v>
+        <v>1.083746124666931</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08520074766686747</v>
+        <v>0.04293057430216862</v>
       </c>
       <c r="E22">
-        <v>0.1378730864609032</v>
+        <v>0.350110966020905</v>
       </c>
       <c r="F22">
-        <v>0.7878205098177631</v>
+        <v>0.8425225313804816</v>
       </c>
       <c r="G22">
-        <v>0.0007819369543828912</v>
+        <v>0.002426753157731986</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.118680238575308</v>
+        <v>0.6485237704813187</v>
       </c>
       <c r="L22">
-        <v>0.305935772950491</v>
+        <v>0.1444745624683179</v>
       </c>
       <c r="M22">
-        <v>0.3402901046840938</v>
+        <v>0.2264217845145353</v>
       </c>
       <c r="N22">
-        <v>0.8076349544730164</v>
+        <v>2.044158625773552</v>
       </c>
       <c r="O22">
-        <v>2.135684293620699</v>
+        <v>2.850233276122452</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.313548731989584</v>
+        <v>1.073095782735777</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08271754216018223</v>
+        <v>0.04209602523002332</v>
       </c>
       <c r="E23">
-        <v>0.139278757822014</v>
+        <v>0.3509741087197114</v>
       </c>
       <c r="F23">
-        <v>0.7666076844878944</v>
+        <v>0.8392340530689069</v>
       </c>
       <c r="G23">
-        <v>0.0007834555269614679</v>
+        <v>0.002427665359266582</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.044882627213383</v>
+        <v>0.6260561187700944</v>
       </c>
       <c r="L23">
-        <v>0.2945691972120272</v>
+        <v>0.1414808239320564</v>
       </c>
       <c r="M23">
-        <v>0.3283807346885723</v>
+        <v>0.2234761234129223</v>
       </c>
       <c r="N23">
-        <v>0.8264257498280809</v>
+        <v>2.052028919079322</v>
       </c>
       <c r="O23">
-        <v>2.08920721472461</v>
+        <v>2.845939872751273</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.144898260890045</v>
+        <v>1.033500569307932</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07330960645987261</v>
+        <v>0.03891438652473056</v>
       </c>
       <c r="E24">
-        <v>0.1448530931171206</v>
+        <v>0.3543967157386172</v>
       </c>
       <c r="F24">
-        <v>0.688989213266666</v>
+        <v>0.8275990270059737</v>
       </c>
       <c r="G24">
-        <v>0.0007893174244080836</v>
+        <v>0.002431259143803831</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.76630330473958</v>
+        <v>0.5407042425100599</v>
       </c>
       <c r="L24">
-        <v>0.251916059865593</v>
+        <v>0.1302237475143784</v>
       </c>
       <c r="M24">
-        <v>0.2837715434616328</v>
+        <v>0.2124707858033048</v>
       </c>
       <c r="N24">
-        <v>0.9003035771625933</v>
+        <v>2.082983702819131</v>
       </c>
       <c r="O24">
-        <v>1.921587686383134</v>
+        <v>2.83236318112759</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9668880611543784</v>
+        <v>0.9923931333228211</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.06314329271842212</v>
+        <v>0.03543861014080107</v>
       </c>
       <c r="E25">
-        <v>0.1513880406184578</v>
+        <v>0.3584179232799292</v>
       </c>
       <c r="F25">
-        <v>0.6104074596518956</v>
+        <v>0.8168013018343743</v>
       </c>
       <c r="G25">
-        <v>0.0007958915618748367</v>
+        <v>0.002435434448161532</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.467134055163626</v>
+        <v>0.448107045908074</v>
       </c>
       <c r="L25">
-        <v>0.2066115463048419</v>
+        <v>0.1182578537988093</v>
       </c>
       <c r="M25">
-        <v>0.2365630396115179</v>
+        <v>0.2009263864045252</v>
       </c>
       <c r="N25">
-        <v>0.9854527630957439</v>
+        <v>2.118823621447213</v>
       </c>
       <c r="O25">
-        <v>1.756766213048849</v>
+        <v>2.823453577581205</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9635149859347223</v>
+        <v>0.8386210488554582</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03284191414364557</v>
+        <v>0.05562970203488504</v>
       </c>
       <c r="E2">
-        <v>0.3616638282185383</v>
+        <v>0.1566372998229775</v>
       </c>
       <c r="F2">
-        <v>0.8103571534480807</v>
+        <v>0.5563348000299015</v>
       </c>
       <c r="G2">
-        <v>0.002438768298994252</v>
+        <v>0.0008009630476407067</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3794774899967308</v>
+        <v>1.247362460289565</v>
       </c>
       <c r="L2">
-        <v>0.1096003322991379</v>
+        <v>0.1737203138329306</v>
       </c>
       <c r="M2">
-        <v>0.1927093455183346</v>
+        <v>0.2024396421860857</v>
       </c>
       <c r="N2">
-        <v>2.147324177306682</v>
+        <v>1.052549650708191</v>
       </c>
       <c r="O2">
-        <v>2.821822959616128</v>
+        <v>1.647303053789642</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9448167195582187</v>
+        <v>0.7531840975419755</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03105887091933113</v>
+        <v>0.0505144379780802</v>
       </c>
       <c r="E3">
-        <v>0.364042379067913</v>
+        <v>0.16046238985443</v>
       </c>
       <c r="F3">
-        <v>0.8069291697227783</v>
+        <v>0.5217594994333723</v>
       </c>
       <c r="G3">
-        <v>0.002441190921033108</v>
+        <v>0.0008045510986403387</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3326898033872112</v>
+        <v>1.09845059558549</v>
       </c>
       <c r="L3">
-        <v>0.1038290825171799</v>
+        <v>0.1516569781417374</v>
       </c>
       <c r="M3">
-        <v>0.1873183987160267</v>
+        <v>0.1796435508429504</v>
       </c>
       <c r="N3">
-        <v>2.167958780013794</v>
+        <v>1.100631894108057</v>
       </c>
       <c r="O3">
-        <v>2.823792047177506</v>
+        <v>1.579689245839432</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9337688813018588</v>
+        <v>0.7013825755934135</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.02995268740206569</v>
+        <v>0.04736049935077347</v>
       </c>
       <c r="E4">
-        <v>0.3655912990694961</v>
+        <v>0.1629413178721864</v>
       </c>
       <c r="F4">
-        <v>0.8052877644600258</v>
+        <v>0.5014616166838692</v>
       </c>
       <c r="G4">
-        <v>0.002442759368287969</v>
+        <v>0.0008068308467297188</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3038275644057364</v>
+        <v>1.006947038347136</v>
       </c>
       <c r="L4">
-        <v>0.1003331979103805</v>
+        <v>0.1382028539317162</v>
       </c>
       <c r="M4">
-        <v>0.1840965728485386</v>
+        <v>0.1657888285850291</v>
       </c>
       <c r="N4">
-        <v>2.181279997314441</v>
+        <v>1.131399622979134</v>
       </c>
       <c r="O4">
-        <v>2.826517546788523</v>
+        <v>1.541154159234225</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9293761783407035</v>
+        <v>0.6804276147610722</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02949906414341541</v>
+        <v>0.04607172281411209</v>
       </c>
       <c r="E5">
-        <v>0.3662447868187053</v>
+        <v>0.1639840170092128</v>
       </c>
       <c r="F5">
-        <v>0.8047354716712007</v>
+        <v>0.4934117915857144</v>
       </c>
       <c r="G5">
-        <v>0.002443418938322672</v>
+        <v>0.0008077794414299181</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2920327093543449</v>
+        <v>0.9696293835762617</v>
       </c>
       <c r="L5">
-        <v>0.09892066805338828</v>
+        <v>0.1327409161248454</v>
       </c>
       <c r="M5">
-        <v>0.1828059543812408</v>
+        <v>0.1601758858768996</v>
       </c>
       <c r="N5">
-        <v>2.186872375052797</v>
+        <v>1.144244641035399</v>
       </c>
       <c r="O5">
-        <v>2.828009678506589</v>
+        <v>1.526163687225164</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9286533945870303</v>
+        <v>0.6769570937846368</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02942356910596544</v>
+        <v>0.04585750372154251</v>
       </c>
       <c r="E6">
-        <v>0.3663546454517999</v>
+        <v>0.1641591131193398</v>
       </c>
       <c r="F6">
-        <v>0.8046508078757668</v>
+        <v>0.492088161380515</v>
       </c>
       <c r="G6">
-        <v>0.002443529694098807</v>
+        <v>0.0008079381458946377</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.29007218984529</v>
+        <v>0.9634307318103197</v>
       </c>
       <c r="L6">
-        <v>0.09868685000395061</v>
+        <v>0.1318351432069775</v>
       </c>
       <c r="M6">
-        <v>0.1825929984847896</v>
+        <v>0.1592457735193911</v>
       </c>
       <c r="N6">
-        <v>2.187810884230586</v>
+        <v>1.146395908881916</v>
       </c>
       <c r="O6">
-        <v>2.828280489731156</v>
+        <v>1.52371655352519</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9337091962230488</v>
+        <v>0.7010993574932627</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02994658117256677</v>
+        <v>0.04734313299253046</v>
       </c>
       <c r="E7">
-        <v>0.3656000219259306</v>
+        <v>0.1629552487458348</v>
       </c>
       <c r="F7">
-        <v>0.8052798438729951</v>
+        <v>0.5013521722677439</v>
       </c>
       <c r="G7">
-        <v>0.002442768180800969</v>
+        <v>0.0008068435602759892</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3036686288112378</v>
+        <v>1.006443892214008</v>
       </c>
       <c r="L7">
-        <v>0.1003140990544864</v>
+        <v>0.1381291117764931</v>
       </c>
       <c r="M7">
-        <v>0.1840790766666487</v>
+        <v>0.1657130005645122</v>
       </c>
       <c r="N7">
-        <v>2.181354754490063</v>
+        <v>1.131571620606602</v>
       </c>
       <c r="O7">
-        <v>2.826536125465026</v>
+        <v>1.540949152978357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9569782559154874</v>
+        <v>0.8090194094659751</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03222949533812169</v>
+        <v>0.05386855290441872</v>
       </c>
       <c r="E8">
-        <v>0.3624656134052286</v>
+        <v>0.1579289922175429</v>
       </c>
       <c r="F8">
-        <v>0.8090790465833493</v>
+        <v>0.5442121883696558</v>
       </c>
       <c r="G8">
-        <v>0.002439586854391587</v>
+        <v>0.0008021844788659889</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.363373303193498</v>
+        <v>1.196025332990786</v>
       </c>
       <c r="L8">
-        <v>0.1076005544326222</v>
+        <v>0.1660919794763416</v>
       </c>
       <c r="M8">
-        <v>0.1908322995784957</v>
+        <v>0.1945483207792087</v>
       </c>
       <c r="N8">
-        <v>2.154303804960953</v>
+        <v>1.068866219015865</v>
       </c>
       <c r="O8">
-        <v>2.822187233672082</v>
+        <v>1.623348790905197</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.006025252499711</v>
+        <v>1.026380216035733</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.036615274454185</v>
+        <v>0.0665714192480209</v>
       </c>
       <c r="E9">
-        <v>0.3570192063644129</v>
+        <v>0.1491180143086135</v>
       </c>
       <c r="F9">
-        <v>0.8202045156827822</v>
+        <v>0.636248922901693</v>
       </c>
       <c r="G9">
-        <v>0.002433987837740301</v>
+        <v>0.0007936421376771308</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.479369088098025</v>
+        <v>1.56779103751748</v>
       </c>
       <c r="L9">
-        <v>0.1222649091925518</v>
+        <v>0.2217911418732541</v>
       </c>
       <c r="M9">
-        <v>0.2047713249325689</v>
+        <v>0.2523571452462932</v>
       </c>
       <c r="N9">
-        <v>2.106423132877587</v>
+        <v>0.9560674249111205</v>
       </c>
       <c r="O9">
-        <v>2.825688903273516</v>
+        <v>1.810320479350764</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.044122063902876</v>
+        <v>1.190338972012654</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03978142215520108</v>
+        <v>0.07586397644549692</v>
       </c>
       <c r="E10">
-        <v>0.3534419028636648</v>
+        <v>0.1432984309504182</v>
       </c>
       <c r="F10">
-        <v>0.8306190833792897</v>
+        <v>0.709620486591092</v>
       </c>
       <c r="G10">
-        <v>0.00243026030799733</v>
+        <v>0.0007877073386237613</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5639129010883153</v>
+        <v>1.841780687516746</v>
       </c>
       <c r="L10">
-        <v>0.1332653279181528</v>
+        <v>0.2634308598881034</v>
       </c>
       <c r="M10">
-        <v>0.2154322918691207</v>
+        <v>0.2958007072212894</v>
       </c>
       <c r="N10">
-        <v>2.074389218582035</v>
+        <v>0.8798070872489747</v>
       </c>
       <c r="O10">
-        <v>2.835596754665545</v>
+        <v>1.965733775100119</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.061896912700973</v>
+        <v>1.266036064661648</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0412094932510243</v>
+        <v>0.08008664185065584</v>
       </c>
       <c r="E11">
-        <v>0.3519060328180768</v>
+        <v>0.1407967597211339</v>
       </c>
       <c r="F11">
-        <v>0.8358436567501997</v>
+        <v>0.7444569152605709</v>
       </c>
       <c r="G11">
-        <v>0.002428647577079894</v>
+        <v>0.0007850766689504525</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6022236506331353</v>
+        <v>1.966816463935544</v>
       </c>
       <c r="L11">
-        <v>0.1383184317620447</v>
+        <v>0.2825749858310758</v>
       </c>
       <c r="M11">
-        <v>0.2203725912393466</v>
+        <v>0.3158229719386298</v>
       </c>
       <c r="N11">
-        <v>2.060497699795806</v>
+        <v>0.8466480155310179</v>
       </c>
       <c r="O11">
-        <v>2.841697517858563</v>
+        <v>2.040962521207348</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.068691243217501</v>
+        <v>1.294876249909919</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04174849229332978</v>
+        <v>0.08168533150290358</v>
       </c>
       <c r="E12">
-        <v>0.3513375489736061</v>
+        <v>0.1398707394111725</v>
       </c>
       <c r="F12">
-        <v>0.8378920544620598</v>
+        <v>0.7578769194908404</v>
       </c>
       <c r="G12">
-        <v>0.002428048743196537</v>
+        <v>0.0007840900177624652</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6167091070843185</v>
+        <v>2.014239190692962</v>
       </c>
       <c r="L12">
-        <v>0.1402388848474772</v>
+        <v>0.2898573796420294</v>
       </c>
       <c r="M12">
-        <v>0.2222562795641778</v>
+        <v>0.3234463666773379</v>
       </c>
       <c r="N12">
-        <v>2.055335204824694</v>
+        <v>0.834320745008502</v>
       </c>
       <c r="O12">
-        <v>2.844236839944926</v>
+        <v>2.070155350362228</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.067225152062264</v>
+        <v>1.288656943944801</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04163248875253345</v>
+        <v>0.081341035069741</v>
       </c>
       <c r="E13">
-        <v>0.3514593993302393</v>
+        <v>0.1400692208367964</v>
       </c>
       <c r="F13">
-        <v>0.8374477845383836</v>
+        <v>0.754976226535149</v>
       </c>
       <c r="G13">
-        <v>0.002428177185515653</v>
+        <v>0.0007843020939172773</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6135903928279447</v>
+        <v>2.004022258653066</v>
       </c>
       <c r="L13">
-        <v>0.1398249731085457</v>
+        <v>0.2882874566843157</v>
       </c>
       <c r="M13">
-        <v>0.2218500215758255</v>
+        <v>0.3218026233374616</v>
       </c>
       <c r="N13">
-        <v>2.056442685146614</v>
+        <v>0.836965292945413</v>
       </c>
       <c r="O13">
-        <v>2.843679763498329</v>
+        <v>2.06383588522624</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.062454619124225</v>
+        <v>1.268405157557851</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04125387283956172</v>
+        <v>0.08021817199210801</v>
       </c>
       <c r="E14">
-        <v>0.3518590006321123</v>
+        <v>0.1407201462973298</v>
       </c>
       <c r="F14">
-        <v>0.836010777777858</v>
+        <v>0.7455563040008997</v>
       </c>
       <c r="G14">
-        <v>0.002428598073014777</v>
+        <v>0.0007849953080943468</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.603415822159775</v>
+        <v>1.970716365086503</v>
       </c>
       <c r="L14">
-        <v>0.1384762897617406</v>
+        <v>0.2831734296380688</v>
       </c>
       <c r="M14">
-        <v>0.2205273054805659</v>
+        <v>0.3164492992625725</v>
       </c>
       <c r="N14">
-        <v>2.06007101564328</v>
+        <v>0.8456291932803182</v>
       </c>
       <c r="O14">
-        <v>2.841901838389475</v>
+        <v>2.043349775237317</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05954076842545</v>
+        <v>1.256023665519791</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04102172711957763</v>
+        <v>0.079530351067163</v>
       </c>
       <c r="E15">
-        <v>0.3521054751143602</v>
+        <v>0.1411216428907736</v>
       </c>
       <c r="F15">
-        <v>0.8351396795113857</v>
+        <v>0.7398166141491203</v>
       </c>
       <c r="G15">
-        <v>0.002428857423141862</v>
+        <v>0.000785421149837092</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.5971807213963984</v>
+        <v>1.950325769589426</v>
       </c>
       <c r="L15">
-        <v>0.137651085057783</v>
+        <v>0.2800453483917806</v>
       </c>
       <c r="M15">
-        <v>0.2197187806198286</v>
+        <v>0.3131757502995569</v>
       </c>
       <c r="N15">
-        <v>2.062306225583788</v>
+        <v>0.8509662283442863</v>
       </c>
       <c r="O15">
-        <v>2.840842640904356</v>
+        <v>2.030894958006314</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.042969333628093</v>
+        <v>1.185415657747853</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03968784642346179</v>
+        <v>0.07558794987492234</v>
       </c>
       <c r="E16">
-        <v>0.3535441130178762</v>
+        <v>0.1434648828546399</v>
       </c>
       <c r="F16">
-        <v>0.8302874388747341</v>
+        <v>0.7073747509434156</v>
       </c>
       <c r="G16">
-        <v>0.002430367368155407</v>
+        <v>0.0007878806149833918</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5614061595036901</v>
+        <v>1.833618740003033</v>
       </c>
       <c r="L16">
-        <v>0.1329360733622025</v>
+        <v>0.2621841368919746</v>
       </c>
       <c r="M16">
-        <v>0.2151112439758904</v>
+        <v>0.2944977703878919</v>
       </c>
       <c r="N16">
-        <v>2.075310763929693</v>
+        <v>0.8820057002445276</v>
       </c>
       <c r="O16">
-        <v>2.835230117712172</v>
+        <v>1.960913085810489</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.032916747336202</v>
+        <v>1.142395327685591</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.038866406630369</v>
+        <v>0.07316846244532371</v>
       </c>
       <c r="E17">
-        <v>0.3544500713730603</v>
+        <v>0.1449399476117232</v>
       </c>
       <c r="F17">
-        <v>0.8274354228910283</v>
+        <v>0.6878591696413139</v>
       </c>
       <c r="G17">
-        <v>0.0024313148748796</v>
+        <v>0.0007894068310787694</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5394211119965178</v>
+        <v>1.76213627089956</v>
       </c>
       <c r="L17">
-        <v>0.1300560433830924</v>
+        <v>0.251281280394636</v>
       </c>
       <c r="M17">
-        <v>0.2123077818458299</v>
+        <v>0.2831087311909357</v>
       </c>
       <c r="N17">
-        <v>2.083463022716963</v>
+        <v>0.9014460774979529</v>
       </c>
       <c r="O17">
-        <v>2.832195136820616</v>
+        <v>1.919179025156836</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.027176627783092</v>
+        <v>1.117754798631012</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03839278682696801</v>
+        <v>0.07177638752824578</v>
       </c>
       <c r="E18">
-        <v>0.3549797657202696</v>
+        <v>0.145802055939348</v>
       </c>
       <c r="F18">
-        <v>0.8258408546671632</v>
+        <v>0.6767705142195979</v>
       </c>
       <c r="G18">
-        <v>0.002431867665574925</v>
+        <v>0.0007902912002202578</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5267619389464926</v>
+        <v>1.721057651543475</v>
       </c>
       <c r="L18">
-        <v>0.1284041397558155</v>
+        <v>0.2450290122947791</v>
       </c>
       <c r="M18">
-        <v>0.2107038368302128</v>
+        <v>0.2765822299426617</v>
       </c>
       <c r="N18">
-        <v>2.088216072019328</v>
+        <v>0.9127713071735233</v>
       </c>
       <c r="O18">
-        <v>2.830599500344704</v>
+        <v>1.895597692041036</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.025240327818125</v>
+        <v>1.109429280127017</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03823223058038394</v>
+        <v>0.07130496838731659</v>
       </c>
       <c r="E19">
-        <v>0.3551605911683442</v>
+        <v>0.1460962916774085</v>
       </c>
       <c r="F19">
-        <v>0.8253088353029199</v>
+        <v>0.6730389373306593</v>
       </c>
       <c r="G19">
-        <v>0.002432056174164483</v>
+        <v>0.0007905917660538399</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5224733824183261</v>
+        <v>1.707154846888244</v>
       </c>
       <c r="L19">
-        <v>0.1278456286053142</v>
+        <v>0.242915210946137</v>
       </c>
       <c r="M19">
-        <v>0.2101622376829582</v>
+        <v>0.2743765007008498</v>
       </c>
       <c r="N19">
-        <v>2.089836379257008</v>
+        <v>0.9166302394244954</v>
       </c>
       <c r="O19">
-        <v>2.830085010644638</v>
+        <v>1.887684525061616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.03398253353518</v>
+        <v>1.146964081011959</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.03895396941596374</v>
+        <v>0.07342606534599838</v>
       </c>
       <c r="E20">
-        <v>0.354352739605214</v>
+        <v>0.1447815050413688</v>
       </c>
       <c r="F20">
-        <v>0.8277342814111108</v>
+        <v>0.689922412271855</v>
       </c>
       <c r="G20">
-        <v>0.002431213203263065</v>
+        <v>0.0007892436898333072</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5417629066102734</v>
+        <v>1.769741832819875</v>
       </c>
       <c r="L20">
-        <v>0.1303621506525587</v>
+        <v>0.2524399385386005</v>
       </c>
       <c r="M20">
-        <v>0.2126053329880406</v>
+        <v>0.2843185834041577</v>
       </c>
       <c r="N20">
-        <v>2.082588568135069</v>
+        <v>0.8993616864570209</v>
       </c>
       <c r="O20">
-        <v>2.83250269131571</v>
+        <v>1.923577530181348</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.063854124336558</v>
+        <v>1.274348710842787</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0413651300130482</v>
+        <v>0.0805479907728639</v>
       </c>
       <c r="E21">
-        <v>0.35174127233861</v>
+        <v>0.1405283724523532</v>
       </c>
       <c r="F21">
-        <v>0.8364309631093789</v>
+        <v>0.7483168177839303</v>
       </c>
       <c r="G21">
-        <v>0.002428474126305847</v>
+        <v>0.0007847914390963218</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6064049420003812</v>
+        <v>1.980496949409627</v>
       </c>
       <c r="L21">
-        <v>0.1388722427704749</v>
+        <v>0.2846746174249546</v>
       </c>
       <c r="M21">
-        <v>0.2209154700024385</v>
+        <v>0.3180205430061918</v>
       </c>
       <c r="N21">
-        <v>2.059002629336018</v>
+        <v>0.8430780964246583</v>
       </c>
       <c r="O21">
-        <v>2.842417841046938</v>
+        <v>2.049347452202369</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.083746124666931</v>
+        <v>1.358631872692769</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04293057430216862</v>
+        <v>0.08520074766676089</v>
       </c>
       <c r="E22">
-        <v>0.350110966020905</v>
+        <v>0.1378730864609023</v>
       </c>
       <c r="F22">
-        <v>0.8425225313804816</v>
+        <v>0.7878205098177631</v>
       </c>
       <c r="G22">
-        <v>0.002426753157731986</v>
+        <v>0.0007819369543556043</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6485237704813187</v>
+        <v>2.118680238575195</v>
       </c>
       <c r="L22">
-        <v>0.1444745624683179</v>
+        <v>0.305935772950491</v>
       </c>
       <c r="M22">
-        <v>0.2264217845145353</v>
+        <v>0.3402901046840867</v>
       </c>
       <c r="N22">
-        <v>2.044158625773552</v>
+        <v>0.8076349544730106</v>
       </c>
       <c r="O22">
-        <v>2.850233276122452</v>
+        <v>2.135684293620699</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.073095782735777</v>
+        <v>1.313548731989584</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04209602523002332</v>
+        <v>0.08271754216012539</v>
       </c>
       <c r="E23">
-        <v>0.3509741087197114</v>
+        <v>0.1392787578220194</v>
       </c>
       <c r="F23">
-        <v>0.8392340530689069</v>
+        <v>0.7666076844878802</v>
       </c>
       <c r="G23">
-        <v>0.002427665359266582</v>
+        <v>0.0007834555269339733</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6260561187700944</v>
+        <v>2.044882627213383</v>
       </c>
       <c r="L23">
-        <v>0.1414808239320564</v>
+        <v>0.2945691972121125</v>
       </c>
       <c r="M23">
-        <v>0.2234761234129223</v>
+        <v>0.3283807346885652</v>
       </c>
       <c r="N23">
-        <v>2.052028919079322</v>
+        <v>0.8264257498280765</v>
       </c>
       <c r="O23">
-        <v>2.845939872751273</v>
+        <v>2.08920721472461</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.033500569307932</v>
+        <v>1.144898260890301</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03891438652473056</v>
+        <v>0.07330960645992946</v>
       </c>
       <c r="E24">
-        <v>0.3543967157386172</v>
+        <v>0.1448530931171277</v>
       </c>
       <c r="F24">
-        <v>0.8275990270059737</v>
+        <v>0.6889892132666517</v>
       </c>
       <c r="G24">
-        <v>0.002431259143803831</v>
+        <v>0.000789317424408986</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5407042425100599</v>
+        <v>1.766303304739608</v>
       </c>
       <c r="L24">
-        <v>0.1302237475143784</v>
+        <v>0.2519160598655645</v>
       </c>
       <c r="M24">
-        <v>0.2124707858033048</v>
+        <v>0.283771543461647</v>
       </c>
       <c r="N24">
-        <v>2.082983702819131</v>
+        <v>0.9003035771625871</v>
       </c>
       <c r="O24">
-        <v>2.83236318112759</v>
+        <v>1.921587686383106</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9923931333228211</v>
+        <v>0.9668880611542363</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03543861014080107</v>
+        <v>0.0631432927185358</v>
       </c>
       <c r="E25">
-        <v>0.3584179232799292</v>
+        <v>0.1513880406184498</v>
       </c>
       <c r="F25">
-        <v>0.8168013018343743</v>
+        <v>0.6104074596518814</v>
       </c>
       <c r="G25">
-        <v>0.002435434448161532</v>
+        <v>0.00079589156181753</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.448107045908074</v>
+        <v>1.467134055163655</v>
       </c>
       <c r="L25">
-        <v>0.1182578537988093</v>
+        <v>0.2066115463048419</v>
       </c>
       <c r="M25">
-        <v>0.2009263864045252</v>
+        <v>0.2365630396115073</v>
       </c>
       <c r="N25">
-        <v>2.118823621447213</v>
+        <v>0.9854527630957488</v>
       </c>
       <c r="O25">
-        <v>2.823453577581205</v>
+        <v>1.756766213048877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8386210488554582</v>
+        <v>0.1976284814893745</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.05562970203488504</v>
+        <v>0.139593206481905</v>
       </c>
       <c r="E2">
-        <v>0.1566372998229775</v>
+        <v>0.1730097499796663</v>
       </c>
       <c r="F2">
-        <v>0.5563348000299015</v>
+        <v>1.378758055811062</v>
       </c>
       <c r="G2">
-        <v>0.0008009630476407067</v>
+        <v>1.003865447508275</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.916892482967114E-05</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.005073221199966227</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.6518015739221568</v>
       </c>
       <c r="K2">
-        <v>1.247362460289565</v>
+        <v>0.2953101860601262</v>
       </c>
       <c r="L2">
-        <v>0.1737203138329306</v>
+        <v>0.2408379058353773</v>
       </c>
       <c r="M2">
-        <v>0.2024396421860857</v>
+        <v>2.84154243858319</v>
       </c>
       <c r="N2">
-        <v>1.052549650708191</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.647303053789642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.8719526569263421</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7531840975419755</v>
+        <v>0.1718982999519483</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0505144379780802</v>
+        <v>0.1232400707871619</v>
       </c>
       <c r="E3">
-        <v>0.16046238985443</v>
+        <v>0.1527861316764998</v>
       </c>
       <c r="F3">
-        <v>0.5217594994333723</v>
+        <v>1.274779463079369</v>
       </c>
       <c r="G3">
-        <v>0.0008045510986403387</v>
+        <v>0.9249416377663948</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0002077328092571218</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.006231160049393392</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.6199846518329508</v>
       </c>
       <c r="K3">
-        <v>1.09845059558549</v>
+        <v>0.3030524425245211</v>
       </c>
       <c r="L3">
-        <v>0.1516569781417374</v>
+        <v>0.2127019755167723</v>
       </c>
       <c r="M3">
-        <v>0.1796435508429504</v>
+        <v>2.46913118198529</v>
       </c>
       <c r="N3">
-        <v>1.100631894108057</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.579689245839432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9052654696586853</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7013825755934135</v>
+        <v>0.1557300006407729</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.04736049935077347</v>
+        <v>0.1132457137663607</v>
       </c>
       <c r="E4">
-        <v>0.1629413178721864</v>
+        <v>0.1404056509585629</v>
       </c>
       <c r="F4">
-        <v>0.5014616166838692</v>
+        <v>1.211951434754667</v>
       </c>
       <c r="G4">
-        <v>0.0008068308467297188</v>
+        <v>0.87742911910739</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0006935872069773197</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.00706481948455373</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.6010137508255156</v>
       </c>
       <c r="K4">
-        <v>1.006947038347136</v>
+        <v>0.3079250102340207</v>
       </c>
       <c r="L4">
-        <v>0.1382028539317162</v>
+        <v>0.1954625455361949</v>
       </c>
       <c r="M4">
-        <v>0.1657888285850291</v>
+        <v>2.241785398853409</v>
       </c>
       <c r="N4">
-        <v>1.131399622979134</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.541154159234225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9263331990799237</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6804276147610722</v>
+        <v>0.1482578128548653</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.04607172281411209</v>
+        <v>0.1092528150470713</v>
       </c>
       <c r="E5">
-        <v>0.1639840170092128</v>
+        <v>0.1353878260290422</v>
       </c>
       <c r="F5">
-        <v>0.4934117915857144</v>
+        <v>1.185973322393991</v>
       </c>
       <c r="G5">
-        <v>0.0008077794414299181</v>
+        <v>0.8576783205474641</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0009796292808019746</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007517685933498885</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.5931027407966951</v>
       </c>
       <c r="K5">
-        <v>0.9696293835762617</v>
+        <v>0.3096324758219566</v>
       </c>
       <c r="L5">
-        <v>0.1327409161248454</v>
+        <v>0.1884244279346774</v>
       </c>
       <c r="M5">
-        <v>0.1601758858768996</v>
+        <v>2.150830438677531</v>
       </c>
       <c r="N5">
-        <v>1.144244641035399</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.526163687225164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.9349336062467524</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6769570937846368</v>
+        <v>0.1460440806957877</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.04585750372154251</v>
+        <v>0.1086763037644261</v>
       </c>
       <c r="E6">
-        <v>0.1641591131193398</v>
+        <v>0.1345806260741504</v>
       </c>
       <c r="F6">
-        <v>0.492088161380515</v>
+        <v>1.180929490060805</v>
       </c>
       <c r="G6">
-        <v>0.0008079381458946377</v>
+        <v>0.8536699998568622</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001032693402835516</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007703785747509961</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5914145344609238</v>
       </c>
       <c r="K6">
-        <v>0.9634307318103197</v>
+        <v>0.3095441284012388</v>
       </c>
       <c r="L6">
-        <v>0.1318351432069775</v>
+        <v>0.1872343672068482</v>
       </c>
       <c r="M6">
-        <v>0.1592457735193911</v>
+        <v>2.137464583583295</v>
       </c>
       <c r="N6">
-        <v>1.146395908881916</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.52371655352519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9362090949593984</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7010993574932627</v>
+        <v>0.1529737394663329</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04734313299253046</v>
+        <v>0.1134270438398488</v>
       </c>
       <c r="E7">
-        <v>0.1629552487458348</v>
+        <v>0.1404083497263322</v>
       </c>
       <c r="F7">
-        <v>0.5013521722677439</v>
+        <v>1.209570165911728</v>
       </c>
       <c r="G7">
-        <v>0.0008068435602759892</v>
+        <v>0.8751381714884587</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0006979967586848712</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0073527735447243</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5998637356440639</v>
       </c>
       <c r="K7">
-        <v>1.006443892214008</v>
+        <v>0.3069305902617021</v>
       </c>
       <c r="L7">
-        <v>0.1381291117764931</v>
+        <v>0.1953086742959442</v>
       </c>
       <c r="M7">
-        <v>0.1657130005645122</v>
+        <v>2.245267236295831</v>
       </c>
       <c r="N7">
-        <v>1.131571620606602</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.540949152978357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9260258667760066</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8090194094659751</v>
+        <v>0.1852827833693311</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05386855290441872</v>
+        <v>0.1342569789300398</v>
       </c>
       <c r="E8">
-        <v>0.1579289922175429</v>
+        <v>0.1661211598467069</v>
       </c>
       <c r="F8">
-        <v>0.5442121883696558</v>
+        <v>1.339999822754308</v>
       </c>
       <c r="G8">
-        <v>0.0008021844788659889</v>
+        <v>0.9737691331642537</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>4.174843280413398E-06</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.005786797698188906</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.6393341959767298</v>
       </c>
       <c r="K8">
-        <v>1.196025332990786</v>
+        <v>0.2966332184421319</v>
       </c>
       <c r="L8">
-        <v>0.1660919794763416</v>
+        <v>0.2310480274586766</v>
       </c>
       <c r="M8">
-        <v>0.1945483207792087</v>
+        <v>2.719104984464906</v>
       </c>
       <c r="N8">
-        <v>1.068866219015865</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.623348790905197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.8828385847601332</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.026380216035733</v>
+        <v>0.2504150136102794</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0665714192480209</v>
+        <v>0.1751468500641096</v>
       </c>
       <c r="E9">
-        <v>0.1491180143086135</v>
+        <v>0.2168515774007815</v>
       </c>
       <c r="F9">
-        <v>0.636248922901693</v>
+        <v>1.608554012222498</v>
       </c>
       <c r="G9">
-        <v>0.0007936421376771308</v>
+        <v>1.179344763128171</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001834405982442222</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003305653108348849</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7235436302200071</v>
       </c>
       <c r="K9">
-        <v>1.56779103751748</v>
+        <v>0.2791843802889318</v>
       </c>
       <c r="L9">
-        <v>0.2217911418732541</v>
+        <v>0.3017374069918048</v>
       </c>
       <c r="M9">
-        <v>0.2523571452462932</v>
+        <v>3.652485698242685</v>
       </c>
       <c r="N9">
-        <v>0.9560674249111205</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.810320479350764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.803819270401708</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.190338972012654</v>
+        <v>0.2962953285347112</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.07586397644549692</v>
+        <v>0.2007002352403191</v>
       </c>
       <c r="E10">
-        <v>0.1432984309504182</v>
+        <v>0.2449379987060567</v>
       </c>
       <c r="F10">
-        <v>0.709620486591092</v>
+        <v>1.785276347731042</v>
       </c>
       <c r="G10">
-        <v>0.0007877073386237613</v>
+        <v>1.317302486084685</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.005425571964871256</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002333232041769051</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.779354926144407</v>
       </c>
       <c r="K10">
-        <v>1.841780687516746</v>
+        <v>0.2652010537064875</v>
       </c>
       <c r="L10">
-        <v>0.2634308598881034</v>
+        <v>0.3383887698898036</v>
       </c>
       <c r="M10">
-        <v>0.2958007072212894</v>
+        <v>4.320617182317108</v>
       </c>
       <c r="N10">
-        <v>0.8798070872489747</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.965733775100119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7494930249792464</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.266036064661648</v>
+        <v>0.3246301617417515</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.08008664185065584</v>
+        <v>0.1709145612326637</v>
       </c>
       <c r="E11">
-        <v>0.1407967597211339</v>
+        <v>0.1809929852097625</v>
       </c>
       <c r="F11">
-        <v>0.7444569152605709</v>
+        <v>1.635647737843115</v>
       </c>
       <c r="G11">
-        <v>0.0007850766689504525</v>
+        <v>1.217532560268921</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02396582259895652</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002617172992940731</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.7246009079742635</v>
       </c>
       <c r="K11">
-        <v>1.966816463935544</v>
+        <v>0.2470433067243132</v>
       </c>
       <c r="L11">
-        <v>0.2825749858310758</v>
+        <v>0.232467131207521</v>
       </c>
       <c r="M11">
-        <v>0.3158229719386298</v>
+        <v>4.363642433055929</v>
       </c>
       <c r="N11">
-        <v>0.8466480155310179</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.040962521207348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7338824753243891</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.294876249909919</v>
+        <v>0.3440522806469772</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.08168533150290358</v>
+        <v>0.1425091114522274</v>
       </c>
       <c r="E12">
-        <v>0.1398707394111725</v>
+        <v>0.1308269045621486</v>
       </c>
       <c r="F12">
-        <v>0.7578769194908404</v>
+        <v>1.479879674091521</v>
       </c>
       <c r="G12">
-        <v>0.0007840900177624652</v>
+        <v>1.109841374397845</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06210042072117972</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002567898093664311</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.6691571804854419</v>
       </c>
       <c r="K12">
-        <v>2.014239190692962</v>
+        <v>0.2369529304708919</v>
       </c>
       <c r="L12">
-        <v>0.2898573796420294</v>
+        <v>0.1559833621567108</v>
       </c>
       <c r="M12">
-        <v>0.3234463666773379</v>
+        <v>4.248595377281731</v>
       </c>
       <c r="N12">
-        <v>0.834320745008502</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.070155350362228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7372689524526059</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.288656943944801</v>
+        <v>0.3533604682454978</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.081341035069741</v>
+        <v>0.1140909549364153</v>
       </c>
       <c r="E13">
-        <v>0.1400692208367964</v>
+        <v>0.0887516974346525</v>
       </c>
       <c r="F13">
-        <v>0.754976226535149</v>
+        <v>1.3079575578993</v>
       </c>
       <c r="G13">
-        <v>0.0007843020939172773</v>
+        <v>0.9870624517562305</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1169027756763938</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.002645882952671208</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.6084869729108249</v>
       </c>
       <c r="K13">
-        <v>2.004022258653066</v>
+        <v>0.230857387843967</v>
       </c>
       <c r="L13">
-        <v>0.2882874566843157</v>
+        <v>0.09798081006461956</v>
       </c>
       <c r="M13">
-        <v>0.3218026233374616</v>
+        <v>4.013768318528321</v>
       </c>
       <c r="N13">
-        <v>0.836965292945413</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.06383588522624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7542028890908732</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.268405157557851</v>
+        <v>0.3544004691828633</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08021817199210801</v>
+        <v>0.09478665662324204</v>
       </c>
       <c r="E14">
-        <v>0.1407201462973298</v>
+        <v>0.0645608181556625</v>
       </c>
       <c r="F14">
-        <v>0.7455563040008997</v>
+        <v>1.181783179408015</v>
       </c>
       <c r="G14">
-        <v>0.0007849953080943468</v>
+        <v>0.8951218632625739</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1654834199720767</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.002851182121816898</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5639920882567395</v>
       </c>
       <c r="K14">
-        <v>1.970716365086503</v>
+        <v>0.2283211786544479</v>
       </c>
       <c r="L14">
-        <v>0.2831734296380688</v>
+        <v>0.06881719938417774</v>
       </c>
       <c r="M14">
-        <v>0.3164492992625725</v>
+        <v>3.798261377009283</v>
       </c>
       <c r="N14">
-        <v>0.8456291932803182</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.043349775237317</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7726481243558752</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.256023665519791</v>
+        <v>0.3511642201104621</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.079530351067163</v>
+        <v>0.08987053626410813</v>
       </c>
       <c r="E15">
-        <v>0.1411216428907736</v>
+        <v>0.05919261929547126</v>
       </c>
       <c r="F15">
-        <v>0.7398166141491203</v>
+        <v>1.146670101907972</v>
       </c>
       <c r="G15">
-        <v>0.000785421149837092</v>
+        <v>0.8687553361551323</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1776928378847344</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.003057169252212333</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5516813767021347</v>
       </c>
       <c r="K15">
-        <v>1.950325769589426</v>
+        <v>0.2282426934479247</v>
       </c>
       <c r="L15">
-        <v>0.2800453483917806</v>
+        <v>0.06305344948229497</v>
       </c>
       <c r="M15">
-        <v>0.3131757502995569</v>
+        <v>3.722806481561804</v>
       </c>
       <c r="N15">
-        <v>0.8509662283442863</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.030894958006314</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7795889718371498</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.185415657747853</v>
+        <v>0.3275196592269793</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.07558794987492234</v>
+        <v>0.08569288172517986</v>
       </c>
       <c r="E16">
-        <v>0.1434648828546399</v>
+        <v>0.05723319146066608</v>
       </c>
       <c r="F16">
-        <v>0.7073747509434156</v>
+        <v>1.108175930398417</v>
       </c>
       <c r="G16">
-        <v>0.0007878806149833918</v>
+        <v>0.8354687062908823</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1637137281810794</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.003579786725137701</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5402842451976539</v>
       </c>
       <c r="K16">
-        <v>1.833618740003033</v>
+        <v>0.2346438916249225</v>
       </c>
       <c r="L16">
-        <v>0.2621841368919746</v>
+        <v>0.06133746857235245</v>
       </c>
       <c r="M16">
-        <v>0.2944977703878919</v>
+        <v>3.491749402378673</v>
       </c>
       <c r="N16">
-        <v>0.8820057002445276</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.960913085810489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7969431821415967</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.142395327685591</v>
+        <v>0.3087649266177124</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07316846244532371</v>
+        <v>0.09236554895644389</v>
       </c>
       <c r="E17">
-        <v>0.1449399476117232</v>
+        <v>0.06743427225871912</v>
       </c>
       <c r="F17">
-        <v>0.6878591696413139</v>
+        <v>1.144540489015569</v>
       </c>
       <c r="G17">
-        <v>0.0007894068310787694</v>
+        <v>0.8580977122402231</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.125391579795064</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.003903773744450056</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5549169444563802</v>
       </c>
       <c r="K17">
-        <v>1.76213627089956</v>
+        <v>0.2408544543234363</v>
       </c>
       <c r="L17">
-        <v>0.251281280394636</v>
+        <v>0.07328370449171118</v>
       </c>
       <c r="M17">
-        <v>0.2831087311909357</v>
+        <v>3.428545505198656</v>
       </c>
       <c r="N17">
-        <v>0.9014460774979529</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.919179025156836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8005438591339527</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.117754798631012</v>
+        <v>0.2948395025052122</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.07177638752824578</v>
+        <v>0.1103338196701245</v>
       </c>
       <c r="E18">
-        <v>0.145802055939348</v>
+        <v>0.09417833311488266</v>
       </c>
       <c r="F18">
-        <v>0.6767705142195979</v>
+        <v>1.253796944628348</v>
       </c>
       <c r="G18">
-        <v>0.0007902912002202578</v>
+        <v>0.9344619591494876</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07255092612803082</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.003757066418236477</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5950107122365154</v>
       </c>
       <c r="K18">
-        <v>1.721057651543475</v>
+        <v>0.2485277786893327</v>
       </c>
       <c r="L18">
-        <v>0.2450290122947791</v>
+        <v>0.1085497418295489</v>
       </c>
       <c r="M18">
-        <v>0.2765822299426617</v>
+        <v>3.498129063353076</v>
       </c>
       <c r="N18">
-        <v>0.9127713071735233</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.895597692041036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7944290346430023</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.109429280127017</v>
+        <v>0.2806879836590213</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.07130496838731659</v>
+        <v>0.1386344246868276</v>
       </c>
       <c r="E19">
-        <v>0.1460962916774085</v>
+        <v>0.140045764858705</v>
       </c>
       <c r="F19">
-        <v>0.6730389373306593</v>
+        <v>1.416502638409298</v>
       </c>
       <c r="G19">
-        <v>0.0007905917660538399</v>
+        <v>1.048951662113566</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02786765519471857</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.003813951809379823</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6526068097510915</v>
       </c>
       <c r="K19">
-        <v>1.707154846888244</v>
+        <v>0.2563016172633485</v>
       </c>
       <c r="L19">
-        <v>0.242915210946137</v>
+        <v>0.1755539764157419</v>
       </c>
       <c r="M19">
-        <v>0.2743765007008498</v>
+        <v>3.67971407185621</v>
       </c>
       <c r="N19">
-        <v>0.9166302394244954</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.887684525061616</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7850113841472783</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.146964081011959</v>
+        <v>0.2759716154734377</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.07342606534599838</v>
+        <v>0.1944974788498257</v>
       </c>
       <c r="E20">
-        <v>0.1447815050413688</v>
+        <v>0.2373524131683098</v>
       </c>
       <c r="F20">
-        <v>0.689922412271855</v>
+        <v>1.730981331064612</v>
       </c>
       <c r="G20">
-        <v>0.0007892436898333072</v>
+        <v>1.273559445613216</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.00428997638763251</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.003393270653161196</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7608542982005133</v>
       </c>
       <c r="K20">
-        <v>1.769741832819875</v>
+        <v>0.2658691192510894</v>
       </c>
       <c r="L20">
-        <v>0.2524399385386005</v>
+        <v>0.327879832462088</v>
       </c>
       <c r="M20">
-        <v>0.2843185834041577</v>
+        <v>4.158056483814903</v>
       </c>
       <c r="N20">
-        <v>0.8993616864570209</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.923577530181348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7629575102632433</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.274348710842787</v>
+        <v>0.310173603916283</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0805479907728639</v>
+        <v>0.2219158420475935</v>
       </c>
       <c r="E21">
-        <v>0.1405283724523532</v>
+        <v>0.2740614260091974</v>
       </c>
       <c r="F21">
-        <v>0.7483168177839303</v>
+        <v>1.912154963016221</v>
       </c>
       <c r="G21">
-        <v>0.0007847914390963218</v>
+        <v>1.412483330491966</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.008016829947950388</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002667729961729925</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.8201023988127361</v>
       </c>
       <c r="K21">
-        <v>1.980496949409627</v>
+        <v>0.258050206796959</v>
       </c>
       <c r="L21">
-        <v>0.2846746174249546</v>
+        <v>0.3808626743651757</v>
       </c>
       <c r="M21">
-        <v>0.3180205430061918</v>
+        <v>4.720093496943946</v>
       </c>
       <c r="N21">
-        <v>0.8430780964246583</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.049347452202369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7220105199687534</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.358631872692769</v>
+        <v>0.3363245087546147</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.08520074766676089</v>
+        <v>0.2370861532135677</v>
       </c>
       <c r="E22">
-        <v>0.1378730864609023</v>
+        <v>0.2931841890893878</v>
       </c>
       <c r="F22">
-        <v>0.7878205098177631</v>
+        <v>2.021441066331633</v>
       </c>
       <c r="G22">
-        <v>0.0007819369543556043</v>
+        <v>1.498077073600996</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.01096125570478601</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002015233190632237</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.8563606961418486</v>
       </c>
       <c r="K22">
-        <v>2.118680238575195</v>
+        <v>0.2535942446556607</v>
       </c>
       <c r="L22">
-        <v>0.305935772950491</v>
+        <v>0.4077174221406494</v>
       </c>
       <c r="M22">
-        <v>0.3402901046840867</v>
+        <v>5.068558789695544</v>
       </c>
       <c r="N22">
-        <v>0.8076349544730106</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.135684293620699</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.6963790245243864</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.313548731989584</v>
+        <v>0.3256087943997557</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.08271754216012539</v>
+        <v>0.2286918186336209</v>
       </c>
       <c r="E23">
-        <v>0.1392787578220194</v>
+        <v>0.2828759452762597</v>
       </c>
       <c r="F23">
-        <v>0.7666076844878802</v>
+        <v>1.965302120008118</v>
       </c>
       <c r="G23">
-        <v>0.0007834555269339733</v>
+        <v>1.454585672000064</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.009339658666891307</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002026692536714059</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.8381251646479768</v>
       </c>
       <c r="K23">
-        <v>2.044882627213383</v>
+        <v>0.2570476866451195</v>
       </c>
       <c r="L23">
-        <v>0.2945691972121125</v>
+        <v>0.3934334357645781</v>
       </c>
       <c r="M23">
-        <v>0.3283807346885652</v>
+        <v>4.876579229645415</v>
       </c>
       <c r="N23">
-        <v>0.8264257498280765</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.08920721472461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7101656665131983</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.144898260890301</v>
+        <v>0.2792368827982301</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.07330960645992946</v>
+        <v>0.1976016043414859</v>
       </c>
       <c r="E24">
-        <v>0.1448530931171277</v>
+        <v>0.2442932122181674</v>
       </c>
       <c r="F24">
-        <v>0.6889892132666517</v>
+        <v>1.752855498864349</v>
       </c>
       <c r="G24">
-        <v>0.000789317424408986</v>
+        <v>1.289808006719852</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004305213657888829</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002861990126387326</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7690756111421422</v>
       </c>
       <c r="K24">
-        <v>1.766303304739608</v>
+        <v>0.2687114028208875</v>
       </c>
       <c r="L24">
-        <v>0.2519160598655645</v>
+        <v>0.3396741922226454</v>
       </c>
       <c r="M24">
-        <v>0.283771543461647</v>
+        <v>4.164738377456956</v>
       </c>
       <c r="N24">
-        <v>0.9003035771625871</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.921587686383106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.7635960541724955</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9668880611542363</v>
+        <v>0.2282551843548504</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0631432927185358</v>
+        <v>0.1644523743288602</v>
       </c>
       <c r="E25">
-        <v>0.1513880406184498</v>
+        <v>0.2031898962661103</v>
       </c>
       <c r="F25">
-        <v>0.6104074596518814</v>
+        <v>1.531104391497621</v>
       </c>
       <c r="G25">
-        <v>0.00079589156181753</v>
+        <v>1.119020351236941</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0009589207787397136</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004336436058111737</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.6982971494880701</v>
       </c>
       <c r="K25">
-        <v>1.467134055163655</v>
+        <v>0.2820533003312118</v>
       </c>
       <c r="L25">
-        <v>0.2066115463048419</v>
+        <v>0.2824214576160955</v>
       </c>
       <c r="M25">
-        <v>0.2365630396115073</v>
+        <v>3.406926903578665</v>
       </c>
       <c r="N25">
-        <v>0.9854527630957488</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.756766213048877</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8241460685690107</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_5/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1976284814893745</v>
+        <v>0.1831957401237077</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.139593206481905</v>
+        <v>0.1409583877127716</v>
       </c>
       <c r="E2">
-        <v>0.1730097499796663</v>
+        <v>0.1733451910334409</v>
       </c>
       <c r="F2">
-        <v>1.378758055811062</v>
+        <v>1.366799155397999</v>
       </c>
       <c r="G2">
-        <v>1.003865447508275</v>
+        <v>0.9696848724635601</v>
       </c>
       <c r="H2">
-        <v>1.916892482967114E-05</v>
+        <v>1.612158639341388E-05</v>
       </c>
       <c r="I2">
-        <v>0.005073221199966227</v>
+        <v>0.002888496010879926</v>
       </c>
       <c r="J2">
-        <v>0.6518015739221568</v>
+        <v>0.6847111957138452</v>
       </c>
       <c r="K2">
-        <v>0.2953101860601262</v>
+        <v>0.2606625176984867</v>
       </c>
       <c r="L2">
-        <v>0.2408379058353773</v>
+        <v>0.1276782685559965</v>
       </c>
       <c r="M2">
-        <v>2.84154243858319</v>
+        <v>0.0729671703020589</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2403502955681844</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.864911088058307</v>
       </c>
       <c r="P2">
-        <v>0.8719526569263421</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8398127444723293</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1718982999519483</v>
+        <v>0.1633578343045485</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1232400707871619</v>
+        <v>0.1242782973918821</v>
       </c>
       <c r="E3">
-        <v>0.1527861316764998</v>
+        <v>0.1531606861860659</v>
       </c>
       <c r="F3">
-        <v>1.274779463079369</v>
+        <v>1.266138555855704</v>
       </c>
       <c r="G3">
-        <v>0.9249416377663948</v>
+        <v>0.8960673782421651</v>
       </c>
       <c r="H3">
-        <v>0.0002077328092571218</v>
+        <v>0.0002027100902821655</v>
       </c>
       <c r="I3">
-        <v>0.006231160049393392</v>
+        <v>0.003566580414572584</v>
       </c>
       <c r="J3">
-        <v>0.6199846518329508</v>
+        <v>0.6495894438723866</v>
       </c>
       <c r="K3">
-        <v>0.3030524425245211</v>
+        <v>0.2682896662741872</v>
       </c>
       <c r="L3">
-        <v>0.2127019755167723</v>
+        <v>0.1327132466098551</v>
       </c>
       <c r="M3">
-        <v>2.46913118198529</v>
+        <v>0.07537036048871881</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2125693554217492</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.483797518600937</v>
       </c>
       <c r="P3">
-        <v>0.9052654696586853</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8704055679626554</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1557300006407729</v>
+        <v>0.1507154505582236</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1132457137663607</v>
+        <v>0.1140921783331663</v>
       </c>
       <c r="E4">
-        <v>0.1404056509585629</v>
+        <v>0.1408023726383227</v>
       </c>
       <c r="F4">
-        <v>1.211951434754667</v>
+        <v>1.205179074843898</v>
       </c>
       <c r="G4">
-        <v>0.87742911910739</v>
+        <v>0.8519029333387493</v>
       </c>
       <c r="H4">
-        <v>0.0006935872069773197</v>
+        <v>0.0006668354492962436</v>
       </c>
       <c r="I4">
-        <v>0.00706481948455373</v>
+        <v>0.00407928722678097</v>
       </c>
       <c r="J4">
-        <v>0.6010137508255156</v>
+        <v>0.6282153115999591</v>
       </c>
       <c r="K4">
-        <v>0.3079250102340207</v>
+        <v>0.2730523398224172</v>
       </c>
       <c r="L4">
-        <v>0.1954625455361949</v>
+        <v>0.1360359639293325</v>
       </c>
       <c r="M4">
-        <v>2.241785398853409</v>
+        <v>0.07717732095328089</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1955368890840319</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.251213590620409</v>
       </c>
       <c r="P4">
-        <v>0.9263331990799237</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8898235408196129</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1482578128548653</v>
+        <v>0.1447314835486395</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1092528150470713</v>
+        <v>0.1100184299842368</v>
       </c>
       <c r="E5">
-        <v>0.1353878260290422</v>
+        <v>0.1357918301439049</v>
       </c>
       <c r="F5">
-        <v>1.185973322393991</v>
+        <v>1.179968909717658</v>
       </c>
       <c r="G5">
-        <v>0.8576783205474641</v>
+        <v>0.8335881679558099</v>
       </c>
       <c r="H5">
-        <v>0.0009796292808019746</v>
+        <v>0.0009391782517287339</v>
       </c>
       <c r="I5">
-        <v>0.007517685933498885</v>
+        <v>0.004404038195632509</v>
       </c>
       <c r="J5">
-        <v>0.5931027407966951</v>
+        <v>0.6192535841937854</v>
       </c>
       <c r="K5">
-        <v>0.3096324758219566</v>
+        <v>0.2747434420046222</v>
       </c>
       <c r="L5">
-        <v>0.1884244279346774</v>
+        <v>0.137276027291886</v>
       </c>
       <c r="M5">
-        <v>2.150830438677531</v>
+        <v>0.07796518398649499</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1885821163907906</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.158053348141692</v>
       </c>
       <c r="P5">
-        <v>0.9349336062467524</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.8977824709201361</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1460440806957877</v>
+        <v>0.1428557517183293</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1086763037644261</v>
+        <v>0.1094224020511803</v>
       </c>
       <c r="E6">
-        <v>0.1345806260741504</v>
+        <v>0.1349839996829978</v>
       </c>
       <c r="F6">
-        <v>1.180929490060805</v>
+        <v>1.175107870145851</v>
       </c>
       <c r="G6">
-        <v>0.8536699998568622</v>
+        <v>0.8298822919740303</v>
       </c>
       <c r="H6">
-        <v>0.001032693402835516</v>
+        <v>0.0009896269186793205</v>
       </c>
       <c r="I6">
-        <v>0.007703785747509961</v>
+        <v>0.004581099229844732</v>
       </c>
       <c r="J6">
-        <v>0.5914145344609238</v>
+        <v>0.6174081925801715</v>
       </c>
       <c r="K6">
-        <v>0.3095441284012388</v>
+        <v>0.2746987515548991</v>
       </c>
       <c r="L6">
-        <v>0.1872343672068482</v>
+        <v>0.1372772065719712</v>
       </c>
       <c r="M6">
-        <v>2.137464583583295</v>
+        <v>0.07806168689788295</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1874075304734362</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.144199587252473</v>
       </c>
       <c r="P6">
-        <v>0.9362090949593984</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8989831613879211</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1529737394663329</v>
+        <v>0.1485054416499025</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1134270438398488</v>
+        <v>0.1145366699174559</v>
       </c>
       <c r="E7">
-        <v>0.1404083497263322</v>
+        <v>0.1408733478025361</v>
       </c>
       <c r="F7">
-        <v>1.209570165911728</v>
+        <v>1.200522416659524</v>
       </c>
       <c r="G7">
-        <v>0.8751381714884587</v>
+        <v>0.8536482875621658</v>
       </c>
       <c r="H7">
-        <v>0.0006979967586848712</v>
+        <v>0.0006742188588613196</v>
       </c>
       <c r="I7">
-        <v>0.0073527735447243</v>
+        <v>0.004400714660918403</v>
       </c>
       <c r="J7">
-        <v>0.5998637356440639</v>
+        <v>0.6192787586287523</v>
       </c>
       <c r="K7">
-        <v>0.3069305902617021</v>
+        <v>0.2720324154917293</v>
       </c>
       <c r="L7">
-        <v>0.1953086742959442</v>
+        <v>0.1354132286127374</v>
       </c>
       <c r="M7">
-        <v>2.245267236295831</v>
+        <v>0.07703666684532706</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1952975720406087</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.250260342074682</v>
       </c>
       <c r="P7">
-        <v>0.9260258667760066</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8895541142814336</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1852827833693311</v>
+        <v>0.1741667884705151</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1342569789300398</v>
+        <v>0.1364328857995361</v>
       </c>
       <c r="E8">
-        <v>0.1661211598467069</v>
+        <v>0.1667111919077122</v>
       </c>
       <c r="F8">
-        <v>1.339999822754308</v>
+        <v>1.32129093028145</v>
       </c>
       <c r="G8">
-        <v>0.9737691331642537</v>
+        <v>0.9545373595548341</v>
       </c>
       <c r="H8">
-        <v>4.174843280413398E-06</v>
+        <v>5.83522538244452E-06</v>
       </c>
       <c r="I8">
-        <v>0.005786797698188906</v>
+        <v>0.003491623485412099</v>
       </c>
       <c r="J8">
-        <v>0.6393341959767298</v>
+        <v>0.6453831445215457</v>
       </c>
       <c r="K8">
-        <v>0.2966332184421319</v>
+        <v>0.2616645937912576</v>
       </c>
       <c r="L8">
-        <v>0.2310480274586766</v>
+        <v>0.1284998809994526</v>
       </c>
       <c r="M8">
-        <v>2.719104984464906</v>
+        <v>0.07337256614808796</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2303864065136452</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.725318940764538</v>
       </c>
       <c r="P8">
-        <v>0.8828385847601332</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.8498787655395716</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2504150136102794</v>
+        <v>0.2240595250912776</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1751468500641096</v>
+        <v>0.1784843021890339</v>
       </c>
       <c r="E9">
-        <v>0.2168515774007815</v>
+        <v>0.2174036389008265</v>
       </c>
       <c r="F9">
-        <v>1.608554012222498</v>
+        <v>1.578035709124194</v>
       </c>
       <c r="G9">
-        <v>1.179344763128171</v>
+        <v>1.151017335395522</v>
       </c>
       <c r="H9">
-        <v>0.001834405982442222</v>
+        <v>0.001690064694869875</v>
       </c>
       <c r="I9">
-        <v>0.003305653108348849</v>
+        <v>0.002012624444367894</v>
       </c>
       <c r="J9">
-        <v>0.7235436302200071</v>
+        <v>0.7280909650557135</v>
       </c>
       <c r="K9">
-        <v>0.2791843802889318</v>
+        <v>0.244051080698334</v>
       </c>
       <c r="L9">
-        <v>0.3017374069918048</v>
+        <v>0.1179144530951</v>
       </c>
       <c r="M9">
-        <v>3.652485698242685</v>
+        <v>0.06923964192729581</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3000170067075913</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.677075767573058</v>
       </c>
       <c r="P9">
-        <v>0.803819270401708</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7778452984751354</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2962953285347112</v>
+        <v>0.2606281202341876</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2007002352403191</v>
+        <v>0.2065119263796333</v>
       </c>
       <c r="E10">
-        <v>0.2449379987060567</v>
+        <v>0.2458406895064087</v>
       </c>
       <c r="F10">
-        <v>1.785276347731042</v>
+        <v>1.731584236879584</v>
       </c>
       <c r="G10">
-        <v>1.317302486084685</v>
+        <v>1.306981255775327</v>
       </c>
       <c r="H10">
-        <v>0.005425571964871256</v>
+        <v>0.005006326659535709</v>
       </c>
       <c r="I10">
-        <v>0.002333232041769051</v>
+        <v>0.001641308860982349</v>
       </c>
       <c r="J10">
-        <v>0.779354926144407</v>
+        <v>0.7364861526666573</v>
       </c>
       <c r="K10">
-        <v>0.2652010537064875</v>
+        <v>0.2295607558162498</v>
       </c>
       <c r="L10">
-        <v>0.3383887698898036</v>
+        <v>0.1106186350747054</v>
       </c>
       <c r="M10">
-        <v>4.320617182317108</v>
+        <v>0.06693041303415193</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3353398766015943</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.3325416150347</v>
       </c>
       <c r="P10">
-        <v>0.7494930249792464</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.7298438931842899</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3246301617417515</v>
+        <v>0.2929364542833497</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1709145612326637</v>
+        <v>0.1793007786063754</v>
       </c>
       <c r="E11">
-        <v>0.1809929852097625</v>
+        <v>0.1822827895868642</v>
       </c>
       <c r="F11">
-        <v>1.635647737843115</v>
+        <v>1.55676653274719</v>
       </c>
       <c r="G11">
-        <v>1.217532560268921</v>
+        <v>1.258720953056525</v>
       </c>
       <c r="H11">
-        <v>0.02396582259895652</v>
+        <v>0.02343859244019342</v>
       </c>
       <c r="I11">
-        <v>0.002617172992940731</v>
+        <v>0.002175467558472199</v>
       </c>
       <c r="J11">
-        <v>0.7246009079742635</v>
+        <v>0.5997177247181043</v>
       </c>
       <c r="K11">
-        <v>0.2470433067243132</v>
+        <v>0.2141649333995055</v>
       </c>
       <c r="L11">
-        <v>0.232467131207521</v>
+        <v>0.104914724835921</v>
       </c>
       <c r="M11">
-        <v>4.363642433055929</v>
+        <v>0.06203778332119469</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2288428114436059</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.317068895603313</v>
       </c>
       <c r="P11">
-        <v>0.7338824753243891</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.7243872524739601</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3440522806469772</v>
+        <v>0.3165920132350379</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1425091114522274</v>
+        <v>0.1512072722225639</v>
       </c>
       <c r="E12">
-        <v>0.1308269045621486</v>
+        <v>0.1319518081671447</v>
       </c>
       <c r="F12">
-        <v>1.479879674091521</v>
+        <v>1.394822316810533</v>
       </c>
       <c r="G12">
-        <v>1.109841374397845</v>
+        <v>1.173554816848252</v>
       </c>
       <c r="H12">
-        <v>0.06210042072117972</v>
+        <v>0.06157058780144098</v>
       </c>
       <c r="I12">
-        <v>0.002567898093664311</v>
+        <v>0.002153693095407583</v>
       </c>
       <c r="J12">
-        <v>0.6691571804854419</v>
+        <v>0.5178292930648638</v>
       </c>
       <c r="K12">
-        <v>0.2369529304708919</v>
+        <v>0.2065598792994594</v>
       </c>
       <c r="L12">
-        <v>0.1559833621567108</v>
+        <v>0.1025341789050964</v>
       </c>
       <c r="M12">
-        <v>4.248595377281731</v>
+        <v>0.05910478585629608</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1526216623009731</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.172271224039036</v>
       </c>
       <c r="P12">
-        <v>0.7372689524526059</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.7347421601489508</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3533604682454978</v>
+        <v>0.3303530158705001</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1140909549364153</v>
+        <v>0.1211192304710238</v>
       </c>
       <c r="E13">
-        <v>0.0887516974346525</v>
+        <v>0.08933442628178767</v>
       </c>
       <c r="F13">
-        <v>1.3079575578993</v>
+        <v>1.234706239020895</v>
       </c>
       <c r="G13">
-        <v>0.9870624517562305</v>
+        <v>1.044628048670376</v>
       </c>
       <c r="H13">
-        <v>0.1169027756763938</v>
+        <v>0.1164599912595321</v>
       </c>
       <c r="I13">
-        <v>0.002645882952671208</v>
+        <v>0.002159861212481573</v>
       </c>
       <c r="J13">
-        <v>0.6084869729108249</v>
+        <v>0.4780138261276932</v>
       </c>
       <c r="K13">
-        <v>0.230857387843967</v>
+        <v>0.2031264598294555</v>
       </c>
       <c r="L13">
-        <v>0.09798081006461956</v>
+        <v>0.1016553499260134</v>
       </c>
       <c r="M13">
-        <v>4.013768318528321</v>
+        <v>0.05722822691165863</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.09544224086566544</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.937333855974543</v>
       </c>
       <c r="P13">
-        <v>0.7542028890908732</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7544747010640762</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3544004691828633</v>
+        <v>0.3347172780098191</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09478665662324204</v>
+        <v>0.1000412316068378</v>
       </c>
       <c r="E14">
-        <v>0.0645608181556625</v>
+        <v>0.06471939049473363</v>
       </c>
       <c r="F14">
-        <v>1.181783179408015</v>
+        <v>1.12334014344998</v>
       </c>
       <c r="G14">
-        <v>0.8951218632625739</v>
+        <v>0.9375913054910399</v>
       </c>
       <c r="H14">
-        <v>0.1654834199720767</v>
+        <v>0.1651292045878563</v>
       </c>
       <c r="I14">
-        <v>0.002851182121816898</v>
+        <v>0.00228127370460296</v>
       </c>
       <c r="J14">
-        <v>0.5639920882567395</v>
+        <v>0.4654127153552992</v>
       </c>
       <c r="K14">
-        <v>0.2283211786544479</v>
+        <v>0.202377566697006</v>
       </c>
       <c r="L14">
-        <v>0.06881719938417774</v>
+        <v>0.1015400773075649</v>
       </c>
       <c r="M14">
-        <v>3.798261377009283</v>
+        <v>0.05640224571303776</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.06695786962404426</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.733759858186716</v>
       </c>
       <c r="P14">
-        <v>0.7726481243558752</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.77226378815039</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3511642201104621</v>
+        <v>0.3324510288931037</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08987053626410813</v>
+        <v>0.09444356988024083</v>
       </c>
       <c r="E15">
-        <v>0.05919261929547126</v>
+        <v>0.05923569227075554</v>
       </c>
       <c r="F15">
-        <v>1.146670101907972</v>
+        <v>1.094643608767925</v>
       </c>
       <c r="G15">
-        <v>0.8687553361551323</v>
+        <v>0.9032256441025055</v>
       </c>
       <c r="H15">
-        <v>0.1776928378847344</v>
+        <v>0.1773756893385894</v>
       </c>
       <c r="I15">
-        <v>0.003057169252212333</v>
+        <v>0.002463516376086439</v>
       </c>
       <c r="J15">
-        <v>0.5516813767021347</v>
+        <v>0.4682983918424242</v>
       </c>
       <c r="K15">
-        <v>0.2282426934479247</v>
+        <v>0.2027710394976014</v>
       </c>
       <c r="L15">
-        <v>0.06305344948229497</v>
+        <v>0.1016781839302048</v>
       </c>
       <c r="M15">
-        <v>3.722806481561804</v>
+        <v>0.05635246990157938</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.06140878269369132</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.666102889609647</v>
       </c>
       <c r="P15">
-        <v>0.7795889718371498</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7780062719797129</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3275196592269793</v>
+        <v>0.3095529421265724</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08569288172517986</v>
+        <v>0.0880316293325123</v>
       </c>
       <c r="E16">
-        <v>0.05723319146066608</v>
+        <v>0.05709763340393259</v>
       </c>
       <c r="F16">
-        <v>1.108175930398417</v>
+        <v>1.080071575586558</v>
       </c>
       <c r="G16">
-        <v>0.8354687062908823</v>
+        <v>0.8338755459115674</v>
       </c>
       <c r="H16">
-        <v>0.1637137281810794</v>
+        <v>0.1635385323443757</v>
       </c>
       <c r="I16">
-        <v>0.003579786725137701</v>
+        <v>0.002777552597960309</v>
       </c>
       <c r="J16">
-        <v>0.5402842451976539</v>
+        <v>0.5219072709802788</v>
       </c>
       <c r="K16">
-        <v>0.2346438916249225</v>
+        <v>0.2091663176170142</v>
       </c>
       <c r="L16">
-        <v>0.06133746857235245</v>
+        <v>0.1036613652296945</v>
       </c>
       <c r="M16">
-        <v>3.491749402378673</v>
+        <v>0.05820525647665864</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.06025090984512715</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.476184264981555</v>
       </c>
       <c r="P16">
-        <v>0.7969431821415967</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7871654088112905</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3087649266177124</v>
+        <v>0.2900992591450517</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09236554895644389</v>
+        <v>0.09396869951496001</v>
       </c>
       <c r="E17">
-        <v>0.06743427225871912</v>
+        <v>0.06729672911551532</v>
       </c>
       <c r="F17">
-        <v>1.144540489015569</v>
+        <v>1.125217154401952</v>
       </c>
       <c r="G17">
-        <v>0.8580977122402231</v>
+        <v>0.8407144199046712</v>
       </c>
       <c r="H17">
-        <v>0.125391579795064</v>
+        <v>0.1252687342469017</v>
       </c>
       <c r="I17">
-        <v>0.003903773744450056</v>
+        <v>0.002985966574195587</v>
       </c>
       <c r="J17">
-        <v>0.5549169444563802</v>
+        <v>0.5646310855386503</v>
       </c>
       <c r="K17">
-        <v>0.2408544543234363</v>
+        <v>0.21455524848799</v>
       </c>
       <c r="L17">
-        <v>0.07328370449171118</v>
+        <v>0.1055204817761535</v>
       </c>
       <c r="M17">
-        <v>3.428545505198656</v>
+        <v>0.0599515500615615</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07235871867338517</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.432489908774642</v>
       </c>
       <c r="P17">
-        <v>0.8005438591339527</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7864943440836853</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2948395025052122</v>
+        <v>0.2733530141260729</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1103338196701245</v>
+        <v>0.1119143992254692</v>
       </c>
       <c r="E18">
-        <v>0.09417833311488266</v>
+        <v>0.09411211315698864</v>
       </c>
       <c r="F18">
-        <v>1.253796944628348</v>
+        <v>1.235817082061601</v>
       </c>
       <c r="G18">
-        <v>0.9344619591494876</v>
+        <v>0.9080293234273569</v>
       </c>
       <c r="H18">
-        <v>0.07255092612803082</v>
+        <v>0.07243549142604877</v>
       </c>
       <c r="I18">
-        <v>0.003757066418236477</v>
+        <v>0.002756069755704083</v>
       </c>
       <c r="J18">
-        <v>0.5950107122365154</v>
+        <v>0.6162330111479122</v>
       </c>
       <c r="K18">
-        <v>0.2485277786893327</v>
+        <v>0.2205480132275799</v>
       </c>
       <c r="L18">
-        <v>0.1085497418295489</v>
+        <v>0.1077816689479691</v>
       </c>
       <c r="M18">
-        <v>3.498129063353076</v>
+        <v>0.06202451483615068</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.107555287584546</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.514957005822566</v>
       </c>
       <c r="P18">
-        <v>0.7944290346430023</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7777026589466871</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2806879836590213</v>
+        <v>0.2554150136525806</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1386344246868276</v>
+        <v>0.1406406183191393</v>
       </c>
       <c r="E19">
-        <v>0.140045764858705</v>
+        <v>0.1401073548324838</v>
       </c>
       <c r="F19">
-        <v>1.416502638409298</v>
+        <v>1.395499945694084</v>
       </c>
       <c r="G19">
-        <v>1.048951662113566</v>
+        <v>1.01657328201108</v>
       </c>
       <c r="H19">
-        <v>0.02786765519471857</v>
+        <v>0.02772314430090006</v>
       </c>
       <c r="I19">
-        <v>0.003813951809379823</v>
+        <v>0.002866944780703484</v>
       </c>
       <c r="J19">
-        <v>0.6526068097510915</v>
+        <v>0.6762929196762286</v>
       </c>
       <c r="K19">
-        <v>0.2563016172633485</v>
+        <v>0.2261730794414367</v>
       </c>
       <c r="L19">
-        <v>0.1755539764157419</v>
+        <v>0.1099862626969212</v>
       </c>
       <c r="M19">
-        <v>3.67971407185621</v>
+        <v>0.0640457807716448</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1742913468374994</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.706369972622838</v>
       </c>
       <c r="P19">
-        <v>0.7850113841472783</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.7661885217806379</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2759716154734377</v>
+        <v>0.243024660649553</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1944974788498257</v>
+        <v>0.1985526484331501</v>
       </c>
       <c r="E20">
-        <v>0.2373524131683098</v>
+        <v>0.2378770581025194</v>
       </c>
       <c r="F20">
-        <v>1.730981331064612</v>
+        <v>1.692899247567553</v>
       </c>
       <c r="G20">
-        <v>1.273559445613216</v>
+        <v>1.244662714642431</v>
       </c>
       <c r="H20">
-        <v>0.00428997638763251</v>
+        <v>0.003980457519304093</v>
       </c>
       <c r="I20">
-        <v>0.003393270653161196</v>
+        <v>0.002690633786836649</v>
       </c>
       <c r="J20">
-        <v>0.7608542982005133</v>
+        <v>0.7582344592323693</v>
       </c>
       <c r="K20">
-        <v>0.2658691192510894</v>
+        <v>0.2315384716635265</v>
       </c>
       <c r="L20">
-        <v>0.327879832462088</v>
+        <v>0.1117715825365595</v>
       </c>
       <c r="M20">
-        <v>4.158056483814903</v>
+        <v>0.06675293999954857</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3255378453931144</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.187543078580916</v>
       </c>
       <c r="P20">
-        <v>0.7629575102632433</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7419164565441143</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.310173603916283</v>
+        <v>0.2738559178542772</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2219158420475935</v>
+        <v>0.2338607861941284</v>
       </c>
       <c r="E21">
-        <v>0.2740614260091974</v>
+        <v>0.276412886952734</v>
       </c>
       <c r="F21">
-        <v>1.912154963016221</v>
+        <v>1.807169966925258</v>
       </c>
       <c r="G21">
-        <v>1.412483330491966</v>
+        <v>1.47506953782505</v>
       </c>
       <c r="H21">
-        <v>0.008016829947950388</v>
+        <v>0.00725849698692832</v>
       </c>
       <c r="I21">
-        <v>0.002667729961729925</v>
+        <v>0.002375053080826639</v>
       </c>
       <c r="J21">
-        <v>0.8201023988127361</v>
+        <v>0.6426853494243687</v>
       </c>
       <c r="K21">
-        <v>0.258050206796959</v>
+        <v>0.2202357850138501</v>
       </c>
       <c r="L21">
-        <v>0.3808626743651757</v>
+        <v>0.1067217769399678</v>
       </c>
       <c r="M21">
-        <v>4.720093496943946</v>
+        <v>0.06504603963156441</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3755363102078917</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>4.659940393063039</v>
       </c>
       <c r="P21">
-        <v>0.7220105199687534</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7070548640903809</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3363245087546147</v>
+        <v>0.298060104212766</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2370861532135677</v>
+        <v>0.2548557002304648</v>
       </c>
       <c r="E22">
-        <v>0.2931841890893878</v>
+        <v>0.2969015694527712</v>
       </c>
       <c r="F22">
-        <v>2.021441066331633</v>
+        <v>1.868189762038739</v>
       </c>
       <c r="G22">
-        <v>1.498077073600996</v>
+        <v>1.631070569018959</v>
       </c>
       <c r="H22">
-        <v>0.01096125570478601</v>
+        <v>0.00982777987778213</v>
       </c>
       <c r="I22">
-        <v>0.002015233190632237</v>
+        <v>0.001882660892521315</v>
       </c>
       <c r="J22">
-        <v>0.8563606961418486</v>
+        <v>0.5634148801466381</v>
       </c>
       <c r="K22">
-        <v>0.2535942446556607</v>
+        <v>0.2132355409173741</v>
       </c>
       <c r="L22">
-        <v>0.4077174221406494</v>
+        <v>0.1038408539923115</v>
       </c>
       <c r="M22">
-        <v>5.068558789695544</v>
+        <v>0.06423034428412322</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.400280807230331</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>4.941475494837505</v>
       </c>
       <c r="P22">
-        <v>0.6963790245243864</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6861262370082706</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3256087943997557</v>
+        <v>0.2872417643214362</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2286918186336209</v>
+        <v>0.2425154434372132</v>
       </c>
       <c r="E23">
-        <v>0.2828759452762597</v>
+        <v>0.2856460792899682</v>
       </c>
       <c r="F23">
-        <v>1.965302120008118</v>
+        <v>1.844243868804696</v>
       </c>
       <c r="G23">
-        <v>1.454585672000064</v>
+        <v>1.53813013244104</v>
       </c>
       <c r="H23">
-        <v>0.009339658666891307</v>
+        <v>0.008434807311888171</v>
       </c>
       <c r="I23">
-        <v>0.002026692536714059</v>
+        <v>0.001754491103159062</v>
       </c>
       <c r="J23">
-        <v>0.8381251646479768</v>
+        <v>0.6229894080605618</v>
       </c>
       <c r="K23">
-        <v>0.2570476866451195</v>
+        <v>0.2180324711540127</v>
       </c>
       <c r="L23">
-        <v>0.3934334357645781</v>
+        <v>0.1056568230419512</v>
       </c>
       <c r="M23">
-        <v>4.876579229645415</v>
+        <v>0.06515445111980078</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3873693648538818</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>4.79727186128622</v>
       </c>
       <c r="P23">
-        <v>0.7101656665131983</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6966738511935304</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2792368827982301</v>
+        <v>0.2452868730852202</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1976016043414859</v>
+        <v>0.2017043835601555</v>
       </c>
       <c r="E24">
-        <v>0.2442932122181674</v>
+        <v>0.244837082553282</v>
       </c>
       <c r="F24">
-        <v>1.752855498864349</v>
+        <v>1.714415346715001</v>
       </c>
       <c r="G24">
-        <v>1.289808006719852</v>
+        <v>1.259390558727802</v>
       </c>
       <c r="H24">
-        <v>0.004305213657888829</v>
+        <v>0.003990187278829826</v>
       </c>
       <c r="I24">
-        <v>0.002861990126387326</v>
+        <v>0.002071218116967977</v>
       </c>
       <c r="J24">
-        <v>0.7690756111421422</v>
+        <v>0.7675450419909282</v>
       </c>
       <c r="K24">
-        <v>0.2687114028208875</v>
+        <v>0.2336874539042384</v>
       </c>
       <c r="L24">
-        <v>0.3396741922226454</v>
+        <v>0.1125787327387613</v>
       </c>
       <c r="M24">
-        <v>4.164738377456956</v>
+        <v>0.06755907458756205</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3372937948802388</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.196438241360227</v>
       </c>
       <c r="P24">
-        <v>0.7635960541724955</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7417670593317514</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2282551843548504</v>
+        <v>0.2063465286017845</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1644523743288602</v>
+        <v>0.1670270452326292</v>
       </c>
       <c r="E25">
-        <v>0.2031898962661103</v>
+        <v>0.2036394670409862</v>
       </c>
       <c r="F25">
-        <v>1.531104391497621</v>
+        <v>1.507775308089947</v>
       </c>
       <c r="G25">
-        <v>1.119020351236941</v>
+        <v>1.087756738653255</v>
       </c>
       <c r="H25">
-        <v>0.0009589207787397136</v>
+        <v>0.0008814769208840278</v>
       </c>
       <c r="I25">
-        <v>0.004336436058111737</v>
+        <v>0.002865437480257249</v>
       </c>
       <c r="J25">
-        <v>0.6982971494880701</v>
+        <v>0.7148596386516743</v>
       </c>
       <c r="K25">
-        <v>0.2820533003312118</v>
+        <v>0.2475583399737733</v>
       </c>
       <c r="L25">
-        <v>0.2824214576160955</v>
+        <v>0.1200504473663697</v>
       </c>
       <c r="M25">
-        <v>3.406926903578665</v>
+        <v>0.0697094335071391</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2811434309481058</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.431876862172146</v>
       </c>
       <c r="P25">
-        <v>0.8241460685690107</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7965085114284882</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
